--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927458275619674</v>
+        <v>0.9927458275619673</v>
       </c>
       <c r="D2">
-        <v>1.012132646966016</v>
+        <v>1.012132646966017</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9950080506200267</v>
+        <v>0.9950080506200268</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000739791175708</v>
+        <v>1.000739791175707</v>
       </c>
       <c r="D3">
-        <v>1.018484433867642</v>
+        <v>1.018484433867641</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.003636725207096</v>
+        <v>1.003636725207095</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04465823745231</v>
       </c>
       <c r="J3">
-        <v>1.021210309034153</v>
+        <v>1.021210309034152</v>
       </c>
       <c r="K3">
-        <v>1.028886142075494</v>
+        <v>1.028886142075493</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.014223283980943</v>
+        <v>1.014223283980941</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,10 +497,10 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005732187418879</v>
+        <v>1.005732187418878</v>
       </c>
       <c r="D4">
-        <v>1.022452767147635</v>
+        <v>1.022452767147636</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
@@ -515,7 +515,7 @@
         <v>1.046495819811375</v>
       </c>
       <c r="J4">
-        <v>1.024990391213892</v>
+        <v>1.024990391213891</v>
       </c>
       <c r="K4">
         <v>1.03228755382872</v>
@@ -524,7 +524,7 @@
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.019023204695863</v>
+        <v>1.019023204695862</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.02408916004868</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.011259010035974</v>
@@ -559,7 +559,7 @@
         <v>1.033687753747309</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.021002180722579</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008133864646186</v>
+        <v>1.008133864646184</v>
       </c>
       <c r="D6">
-        <v>1.024362102642522</v>
+        <v>1.024362102642521</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.011630452300085</v>
+        <v>1.011630452300084</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047374928702441</v>
+        <v>1.04737492870244</v>
       </c>
       <c r="J6">
-        <v>1.026806622219208</v>
+        <v>1.026806622219206</v>
       </c>
       <c r="K6">
-        <v>1.033921158998066</v>
+        <v>1.033921158998065</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.021332248526076</v>
+        <v>1.021332248526074</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0057598469114</v>
+        <v>1.005759846911401</v>
       </c>
       <c r="D7">
-        <v>1.022474755497278</v>
+        <v>1.022474755497279</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.009062497232661</v>
+        <v>1.009062497232662</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046505962897778</v>
       </c>
       <c r="J7">
-        <v>1.02501131684202</v>
+        <v>1.025011316842021</v>
       </c>
       <c r="K7">
-        <v>1.032306377975029</v>
+        <v>1.032306377975031</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.019049797519922</v>
+        <v>1.019049797519923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.99548646342087</v>
+        <v>0.9954864634208699</v>
       </c>
       <c r="D8">
         <v>1.014309888589275</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9979647986037815</v>
+        <v>0.997964798603781</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9758649563281956</v>
+        <v>0.9758649563281965</v>
       </c>
       <c r="D9">
-        <v>0.998733967705042</v>
+        <v>0.9987339677050427</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9768264191966912</v>
+        <v>0.9768264191966919</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035331321035973</v>
+        <v>1.035331321035974</v>
       </c>
       <c r="J9">
-        <v>1.002299748763956</v>
+        <v>1.002299748763957</v>
       </c>
       <c r="K9">
-        <v>1.011847618850189</v>
+        <v>1.01184761885019</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9903070045361186</v>
+        <v>0.9903070045361194</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9615387512070206</v>
+        <v>0.9615387512070195</v>
       </c>
       <c r="D10">
-        <v>0.9873839721591595</v>
+        <v>0.9873839721591589</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.961431105449376</v>
+        <v>0.9614311054493752</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029858607397532</v>
       </c>
       <c r="J10">
-        <v>0.9913660474536476</v>
+        <v>0.9913660474536466</v>
       </c>
       <c r="K10">
-        <v>1.001984811238663</v>
+        <v>1.001984811238662</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9765334917060954</v>
+        <v>0.9765334917060948</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549784950421694</v>
+        <v>0.9549784950421696</v>
       </c>
       <c r="D11">
-        <v>0.9821945046501465</v>
+        <v>0.9821945046501468</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9543901196166504</v>
+        <v>0.9543901196166502</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.027333676598906</v>
       </c>
       <c r="J11">
-        <v>0.9863520381251799</v>
+        <v>0.9863520381251802</v>
       </c>
       <c r="K11">
-        <v>0.9974602039262135</v>
+        <v>0.9974602039262134</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9702266667969989</v>
+        <v>0.9702266667969988</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9524817744543933</v>
+        <v>0.9524817744543922</v>
       </c>
       <c r="D12">
-        <v>0.9802209296850444</v>
+        <v>0.9802209296850432</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9517117360320716</v>
+        <v>0.9517117360320706</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026370022566314</v>
       </c>
       <c r="J12">
-        <v>0.9844428182140754</v>
+        <v>0.9844428182140745</v>
       </c>
       <c r="K12">
-        <v>0.9957371358635766</v>
+        <v>0.9957371358635756</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9678264662896121</v>
+        <v>0.9678264662896109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9530201558060224</v>
+        <v>0.9530201558060215</v>
       </c>
       <c r="D13">
-        <v>0.9806464325747432</v>
+        <v>0.9806464325747422</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9522892326073591</v>
+        <v>0.9522892326073582</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026577940454593</v>
+        <v>1.026577940454592</v>
       </c>
       <c r="J13">
-        <v>0.984854555537493</v>
+        <v>0.9848545555374921</v>
       </c>
       <c r="K13">
-        <v>0.9961087363275463</v>
+        <v>0.9961087363275452</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9683440311241504</v>
+        <v>0.9683440311241495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9547733787465427</v>
+        <v>0.954773378746542</v>
       </c>
       <c r="D14">
-        <v>0.9820323361221038</v>
+        <v>0.9820323361221035</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9541700529465295</v>
+        <v>0.9541700529465289</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027254562340694</v>
       </c>
       <c r="J14">
-        <v>0.9861952065308864</v>
+        <v>0.986195206530886</v>
       </c>
       <c r="K14">
-        <v>0.9973186673972289</v>
+        <v>0.9973186673972285</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.970029478552389</v>
+        <v>0.9700294785523882</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558454457717791</v>
+        <v>0.9558454457717787</v>
       </c>
       <c r="D15">
-        <v>0.9828799913355455</v>
+        <v>0.9828799913355452</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9553203123195542</v>
+        <v>0.9553203123195544</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>1.027667954260789</v>
       </c>
       <c r="J15">
-        <v>0.9870148684962576</v>
+        <v>0.9870148684962573</v>
       </c>
       <c r="K15">
-        <v>0.9980583836667041</v>
+        <v>0.9980583836667037</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
@@ -956,13 +956,13 @@
         <v>0.9619660978256382</v>
       </c>
       <c r="D16">
-        <v>0.9877222070042729</v>
+        <v>0.9877222070042732</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9618899469985657</v>
+        <v>0.9618899469985654</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.030022707506738</v>
       </c>
       <c r="J16">
-        <v>0.9916925288140312</v>
+        <v>0.9916925288140314</v>
       </c>
       <c r="K16">
         <v>1.00227939522267</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
         <v>0.9769443378246278</v>
@@ -994,13 +994,13 @@
         <v>0.9657057197574835</v>
       </c>
       <c r="D17">
-        <v>0.9906829454142776</v>
+        <v>0.9906829454142778</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9659061621070857</v>
+        <v>0.9659061621070858</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031456612068761</v>
       </c>
       <c r="J17">
-        <v>0.994548699137708</v>
+        <v>0.9945486991377082</v>
       </c>
       <c r="K17">
         <v>1.004856332584119</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9805396076547066</v>
+        <v>0.9805396076547067</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9678530198114363</v>
+        <v>0.9678530198114372</v>
       </c>
       <c r="D18">
-        <v>0.9923837295300723</v>
+        <v>0.992383729530073</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9682131093479613</v>
+        <v>0.9682131093479621</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032278195117129</v>
       </c>
       <c r="J18">
-        <v>0.9961880349090654</v>
+        <v>0.996188034909066</v>
       </c>
       <c r="K18">
-        <v>1.006335237662137</v>
+        <v>1.006335237662138</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9826040511801674</v>
+        <v>0.9826040511801682</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9685796090738598</v>
+        <v>0.9685796090738599</v>
       </c>
       <c r="D19">
-        <v>0.9929593449709798</v>
+        <v>0.9929593449709796</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9689938600640102</v>
+        <v>0.9689938600640101</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.032555893560075</v>
       </c>
       <c r="J19">
-        <v>0.9967426233800959</v>
+        <v>0.9967426233800958</v>
       </c>
       <c r="K19">
         <v>1.006835523495321</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
         <v>0.9833026087337842</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9653080485272219</v>
+        <v>0.9653080485272217</v>
       </c>
       <c r="D20">
-        <v>0.9903680239147302</v>
+        <v>0.9903680239147301</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9654789921528559</v>
+        <v>0.9654789921528558</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>1.004582381174469</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
         <v>0.9801572834981851</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9542588094363559</v>
+        <v>0.9542588094363562</v>
       </c>
       <c r="D21">
-        <v>0.9816255328020802</v>
+        <v>0.981625532802081</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9536179987219429</v>
+        <v>0.9536179987219434</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027056047652916</v>
       </c>
       <c r="J21">
-        <v>0.9858017524280012</v>
+        <v>0.9858017524280016</v>
       </c>
       <c r="K21">
-        <v>0.9969635820268268</v>
+        <v>0.9969635820268276</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9695347992734212</v>
+        <v>0.9695347992734219</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9469608859604086</v>
+        <v>0.9469608859604087</v>
       </c>
       <c r="D22">
-        <v>0.975859844573213</v>
+        <v>0.9758598445732131</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.945791493846044</v>
+        <v>0.9457914938460442</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024234280695336</v>
       </c>
       <c r="J22">
-        <v>0.9802193846862057</v>
+        <v>0.9802193846862058</v>
       </c>
       <c r="K22">
         <v>0.9919251859651175</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9625191546958389</v>
+        <v>0.9625191546958392</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9508653186698997</v>
+        <v>0.9508653186699021</v>
       </c>
       <c r="D23">
-        <v>0.9789436182870253</v>
+        <v>0.9789436182870273</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9499780260268448</v>
+        <v>0.9499780260268471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025745375760547</v>
+        <v>1.025745375760549</v>
       </c>
       <c r="J23">
-        <v>0.9832064700127748</v>
+        <v>0.9832064700127773</v>
       </c>
       <c r="K23">
-        <v>0.9946212839425574</v>
+        <v>0.9946212839425596</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9662725221721062</v>
+        <v>0.9662725221721085</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9654878435139707</v>
+        <v>0.9654878435139719</v>
       </c>
       <c r="D24">
-        <v>0.990510403896256</v>
+        <v>0.9905104038962573</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9656721215192048</v>
+        <v>0.9656721215192061</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031373176415463</v>
+        <v>1.031373176415464</v>
       </c>
       <c r="J24">
-        <v>0.9943823349020361</v>
+        <v>0.9943823349020371</v>
       </c>
       <c r="K24">
-        <v>1.004706242429717</v>
+        <v>1.004706242429718</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9803301396764897</v>
+        <v>0.9803301396764911</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811386965424208</v>
+        <v>0.9811386965424216</v>
       </c>
       <c r="D25">
         <v>1.002917330918894</v>
@@ -1304,25 +1304,25 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9825013006324312</v>
+        <v>0.982501300632432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037329397840535</v>
+        <v>1.037329397840536</v>
       </c>
       <c r="J25">
         <v>1.006317929162678</v>
       </c>
       <c r="K25">
-        <v>1.015470527263084</v>
+        <v>1.015470527263085</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9953774743171344</v>
+        <v>0.995377474317135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927458275619673</v>
+        <v>0.9927458275619674</v>
       </c>
       <c r="D2">
-        <v>1.012132646966017</v>
+        <v>1.012132646966016</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9950080506200268</v>
+        <v>0.9950080506200267</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000739791175707</v>
+        <v>1.000739791175708</v>
       </c>
       <c r="D3">
-        <v>1.018484433867641</v>
+        <v>1.018484433867642</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.003636725207095</v>
+        <v>1.003636725207096</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04465823745231</v>
       </c>
       <c r="J3">
-        <v>1.021210309034152</v>
+        <v>1.021210309034153</v>
       </c>
       <c r="K3">
-        <v>1.028886142075493</v>
+        <v>1.028886142075494</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.014223283980941</v>
+        <v>1.014223283980943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,10 +497,10 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005732187418878</v>
+        <v>1.005732187418879</v>
       </c>
       <c r="D4">
-        <v>1.022452767147636</v>
+        <v>1.022452767147635</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
@@ -515,7 +515,7 @@
         <v>1.046495819811375</v>
       </c>
       <c r="J4">
-        <v>1.024990391213891</v>
+        <v>1.024990391213892</v>
       </c>
       <c r="K4">
         <v>1.03228755382872</v>
@@ -524,7 +524,7 @@
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.019023204695862</v>
+        <v>1.019023204695863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.02408916004868</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.011259010035974</v>
@@ -559,7 +559,7 @@
         <v>1.033687753747309</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.021002180722579</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008133864646184</v>
+        <v>1.008133864646186</v>
       </c>
       <c r="D6">
-        <v>1.024362102642521</v>
+        <v>1.024362102642522</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.011630452300084</v>
+        <v>1.011630452300085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04737492870244</v>
+        <v>1.047374928702441</v>
       </c>
       <c r="J6">
-        <v>1.026806622219206</v>
+        <v>1.026806622219208</v>
       </c>
       <c r="K6">
-        <v>1.033921158998065</v>
+        <v>1.033921158998066</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.021332248526074</v>
+        <v>1.021332248526076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005759846911401</v>
+        <v>1.0057598469114</v>
       </c>
       <c r="D7">
-        <v>1.022474755497279</v>
+        <v>1.022474755497278</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.009062497232662</v>
+        <v>1.009062497232661</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046505962897778</v>
       </c>
       <c r="J7">
-        <v>1.025011316842021</v>
+        <v>1.02501131684202</v>
       </c>
       <c r="K7">
-        <v>1.032306377975031</v>
+        <v>1.032306377975029</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.019049797519923</v>
+        <v>1.019049797519922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9954864634208699</v>
+        <v>0.99548646342087</v>
       </c>
       <c r="D8">
         <v>1.014309888589275</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.997964798603781</v>
+        <v>0.9979647986037815</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9758649563281965</v>
+        <v>0.9758649563281956</v>
       </c>
       <c r="D9">
-        <v>0.9987339677050427</v>
+        <v>0.998733967705042</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9768264191966919</v>
+        <v>0.9768264191966912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035331321035974</v>
+        <v>1.035331321035973</v>
       </c>
       <c r="J9">
-        <v>1.002299748763957</v>
+        <v>1.002299748763956</v>
       </c>
       <c r="K9">
-        <v>1.01184761885019</v>
+        <v>1.011847618850189</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9903070045361194</v>
+        <v>0.9903070045361186</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9615387512070195</v>
+        <v>0.9615387512070206</v>
       </c>
       <c r="D10">
-        <v>0.9873839721591589</v>
+        <v>0.9873839721591595</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9614311054493752</v>
+        <v>0.961431105449376</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029858607397532</v>
       </c>
       <c r="J10">
-        <v>0.9913660474536466</v>
+        <v>0.9913660474536476</v>
       </c>
       <c r="K10">
-        <v>1.001984811238662</v>
+        <v>1.001984811238663</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9765334917060948</v>
+        <v>0.9765334917060954</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549784950421696</v>
+        <v>0.9549784950421694</v>
       </c>
       <c r="D11">
-        <v>0.9821945046501468</v>
+        <v>0.9821945046501465</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9543901196166502</v>
+        <v>0.9543901196166504</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.027333676598906</v>
       </c>
       <c r="J11">
-        <v>0.9863520381251802</v>
+        <v>0.9863520381251799</v>
       </c>
       <c r="K11">
-        <v>0.9974602039262134</v>
+        <v>0.9974602039262135</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9702266667969988</v>
+        <v>0.9702266667969989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9524817744543922</v>
+        <v>0.9524817744543933</v>
       </c>
       <c r="D12">
-        <v>0.9802209296850432</v>
+        <v>0.9802209296850444</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9517117360320706</v>
+        <v>0.9517117360320716</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026370022566314</v>
       </c>
       <c r="J12">
-        <v>0.9844428182140745</v>
+        <v>0.9844428182140754</v>
       </c>
       <c r="K12">
-        <v>0.9957371358635756</v>
+        <v>0.9957371358635766</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9678264662896109</v>
+        <v>0.9678264662896121</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9530201558060215</v>
+        <v>0.9530201558060224</v>
       </c>
       <c r="D13">
-        <v>0.9806464325747422</v>
+        <v>0.9806464325747432</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9522892326073582</v>
+        <v>0.9522892326073591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026577940454592</v>
+        <v>1.026577940454593</v>
       </c>
       <c r="J13">
-        <v>0.9848545555374921</v>
+        <v>0.984854555537493</v>
       </c>
       <c r="K13">
-        <v>0.9961087363275452</v>
+        <v>0.9961087363275463</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9683440311241495</v>
+        <v>0.9683440311241504</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.954773378746542</v>
+        <v>0.9547733787465427</v>
       </c>
       <c r="D14">
-        <v>0.9820323361221035</v>
+        <v>0.9820323361221038</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9541700529465289</v>
+        <v>0.9541700529465295</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027254562340694</v>
       </c>
       <c r="J14">
-        <v>0.986195206530886</v>
+        <v>0.9861952065308864</v>
       </c>
       <c r="K14">
-        <v>0.9973186673972285</v>
+        <v>0.9973186673972289</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9700294785523882</v>
+        <v>0.970029478552389</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558454457717787</v>
+        <v>0.9558454457717791</v>
       </c>
       <c r="D15">
-        <v>0.9828799913355452</v>
+        <v>0.9828799913355455</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9553203123195544</v>
+        <v>0.9553203123195542</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>1.027667954260789</v>
       </c>
       <c r="J15">
-        <v>0.9870148684962573</v>
+        <v>0.9870148684962576</v>
       </c>
       <c r="K15">
-        <v>0.9980583836667037</v>
+        <v>0.9980583836667041</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
@@ -956,13 +956,13 @@
         <v>0.9619660978256382</v>
       </c>
       <c r="D16">
-        <v>0.9877222070042732</v>
+        <v>0.9877222070042729</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9618899469985654</v>
+        <v>0.9618899469985657</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.030022707506738</v>
       </c>
       <c r="J16">
-        <v>0.9916925288140314</v>
+        <v>0.9916925288140312</v>
       </c>
       <c r="K16">
         <v>1.00227939522267</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
         <v>0.9769443378246278</v>
@@ -994,13 +994,13 @@
         <v>0.9657057197574835</v>
       </c>
       <c r="D17">
-        <v>0.9906829454142778</v>
+        <v>0.9906829454142776</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9659061621070858</v>
+        <v>0.9659061621070857</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031456612068761</v>
       </c>
       <c r="J17">
-        <v>0.9945486991377082</v>
+        <v>0.994548699137708</v>
       </c>
       <c r="K17">
         <v>1.004856332584119</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9805396076547067</v>
+        <v>0.9805396076547066</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9678530198114372</v>
+        <v>0.9678530198114363</v>
       </c>
       <c r="D18">
-        <v>0.992383729530073</v>
+        <v>0.9923837295300723</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9682131093479621</v>
+        <v>0.9682131093479613</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032278195117129</v>
       </c>
       <c r="J18">
-        <v>0.996188034909066</v>
+        <v>0.9961880349090654</v>
       </c>
       <c r="K18">
-        <v>1.006335237662138</v>
+        <v>1.006335237662137</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9826040511801682</v>
+        <v>0.9826040511801674</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9685796090738599</v>
+        <v>0.9685796090738598</v>
       </c>
       <c r="D19">
-        <v>0.9929593449709796</v>
+        <v>0.9929593449709798</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9689938600640101</v>
+        <v>0.9689938600640102</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.032555893560075</v>
       </c>
       <c r="J19">
-        <v>0.9967426233800958</v>
+        <v>0.9967426233800959</v>
       </c>
       <c r="K19">
         <v>1.006835523495321</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
         <v>0.9833026087337842</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9653080485272217</v>
+        <v>0.9653080485272219</v>
       </c>
       <c r="D20">
-        <v>0.9903680239147301</v>
+        <v>0.9903680239147302</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9654789921528558</v>
+        <v>0.9654789921528559</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>1.004582381174469</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
         <v>0.9801572834981851</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9542588094363562</v>
+        <v>0.9542588094363559</v>
       </c>
       <c r="D21">
-        <v>0.981625532802081</v>
+        <v>0.9816255328020802</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9536179987219434</v>
+        <v>0.9536179987219429</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027056047652916</v>
       </c>
       <c r="J21">
-        <v>0.9858017524280016</v>
+        <v>0.9858017524280012</v>
       </c>
       <c r="K21">
-        <v>0.9969635820268276</v>
+        <v>0.9969635820268268</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9695347992734219</v>
+        <v>0.9695347992734212</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9469608859604087</v>
+        <v>0.9469608859604086</v>
       </c>
       <c r="D22">
-        <v>0.9758598445732131</v>
+        <v>0.975859844573213</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9457914938460442</v>
+        <v>0.945791493846044</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024234280695336</v>
       </c>
       <c r="J22">
-        <v>0.9802193846862058</v>
+        <v>0.9802193846862057</v>
       </c>
       <c r="K22">
         <v>0.9919251859651175</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9625191546958392</v>
+        <v>0.9625191546958389</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9508653186699021</v>
+        <v>0.9508653186698997</v>
       </c>
       <c r="D23">
-        <v>0.9789436182870273</v>
+        <v>0.9789436182870253</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9499780260268471</v>
+        <v>0.9499780260268448</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025745375760549</v>
+        <v>1.025745375760547</v>
       </c>
       <c r="J23">
-        <v>0.9832064700127773</v>
+        <v>0.9832064700127748</v>
       </c>
       <c r="K23">
-        <v>0.9946212839425596</v>
+        <v>0.9946212839425574</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9662725221721085</v>
+        <v>0.9662725221721062</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9654878435139719</v>
+        <v>0.9654878435139707</v>
       </c>
       <c r="D24">
-        <v>0.9905104038962573</v>
+        <v>0.990510403896256</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9656721215192061</v>
+        <v>0.9656721215192048</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031373176415464</v>
+        <v>1.031373176415463</v>
       </c>
       <c r="J24">
-        <v>0.9943823349020371</v>
+        <v>0.9943823349020361</v>
       </c>
       <c r="K24">
-        <v>1.004706242429718</v>
+        <v>1.004706242429717</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9803301396764911</v>
+        <v>0.9803301396764897</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811386965424216</v>
+        <v>0.9811386965424208</v>
       </c>
       <c r="D25">
         <v>1.002917330918894</v>
@@ -1304,25 +1304,25 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.982501300632432</v>
+        <v>0.9825013006324312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037329397840536</v>
+        <v>1.037329397840535</v>
       </c>
       <c r="J25">
         <v>1.006317929162678</v>
       </c>
       <c r="K25">
-        <v>1.015470527263085</v>
+        <v>1.015470527263084</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.995377474317135</v>
+        <v>0.9953774743171344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927458275619674</v>
+        <v>0.9927682671707266</v>
       </c>
       <c r="D2">
-        <v>1.012132646966016</v>
+        <v>1.012151121560153</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9950080506200267</v>
+        <v>0.9950293319723953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041689667491928</v>
+        <v>1.041699996205858</v>
       </c>
       <c r="J2">
-        <v>1.015145695904604</v>
+        <v>1.015167450777644</v>
       </c>
       <c r="K2">
-        <v>1.023425503377184</v>
+        <v>1.023443728299351</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.006537372130907</v>
+        <v>1.006558353237073</v>
+      </c>
+      <c r="N2">
+        <v>1.010739071123638</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000739791175708</v>
+        <v>1.000754894449752</v>
       </c>
       <c r="D3">
-        <v>1.018484433867642</v>
+        <v>1.018496885365249</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.003636725207096</v>
+        <v>1.003651026987812</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04465823745231</v>
+        <v>1.044665208270251</v>
       </c>
       <c r="J3">
-        <v>1.021210309034153</v>
+        <v>1.021225001414478</v>
       </c>
       <c r="K3">
-        <v>1.028886142075494</v>
+        <v>1.028898441367357</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.014223283980943</v>
+        <v>1.014237404422975</v>
+      </c>
+      <c r="N3">
+        <v>1.015073384481397</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005732187418879</v>
+        <v>1.005742822045585</v>
       </c>
       <c r="D4">
-        <v>1.022452767147635</v>
+        <v>1.02246154177835</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.009032586233869</v>
+        <v>1.009042647113455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046495819811375</v>
+        <v>1.046500736426398</v>
       </c>
       <c r="J4">
-        <v>1.024990391213892</v>
+        <v>1.025000757978971</v>
       </c>
       <c r="K4">
-        <v>1.03228755382872</v>
+        <v>1.032296228222049</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.019023204695863</v>
+        <v>1.019033146828693</v>
+      </c>
+      <c r="N4">
+        <v>1.017770381120738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007790553348151</v>
+        <v>1.007799369454442</v>
       </c>
       <c r="D5">
-        <v>1.02408916004868</v>
+        <v>1.024096436631148</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.011259010035974</v>
+        <v>1.011267347339053</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047249465939669</v>
+        <v>1.047253544633353</v>
       </c>
       <c r="J5">
-        <v>1.026547091850595</v>
+        <v>1.026555693138538</v>
       </c>
       <c r="K5">
-        <v>1.033687753747309</v>
+        <v>1.033694949597654</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.021002180722579</v>
+        <v>1.021010422606719</v>
+      </c>
+      <c r="N5">
+        <v>1.01887993323409</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008133864646186</v>
+        <v>1.008142378764742</v>
       </c>
       <c r="D6">
-        <v>1.024362102642522</v>
+        <v>1.024369130358483</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.011630452300085</v>
+        <v>1.011638503508693</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047374928702441</v>
+        <v>1.047378868137957</v>
       </c>
       <c r="J6">
-        <v>1.026806622219208</v>
+        <v>1.026814930038573</v>
       </c>
       <c r="K6">
-        <v>1.033921158998066</v>
+        <v>1.033928109127892</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.021332248526076</v>
+        <v>1.021340208069234</v>
+      </c>
+      <c r="N6">
+        <v>1.019064849711121</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0057598469114</v>
+        <v>1.005770457010813</v>
       </c>
       <c r="D7">
-        <v>1.022474755497278</v>
+        <v>1.022483509929752</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.009062497232661</v>
+        <v>1.009072534856804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046505962897778</v>
+        <v>1.046510868218939</v>
       </c>
       <c r="J7">
-        <v>1.02501131684202</v>
+        <v>1.025021659815107</v>
       </c>
       <c r="K7">
-        <v>1.032306377975029</v>
+        <v>1.03231503243957</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.019049797519922</v>
+        <v>1.01905971672021</v>
+      </c>
+      <c r="N7">
+        <v>1.017785300490056</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.99548646342087</v>
+        <v>0.9955063617769224</v>
       </c>
       <c r="D8">
-        <v>1.014309888589275</v>
+        <v>1.014326278716536</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9979647986037815</v>
+        <v>0.997983659873837</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042710828466205</v>
+        <v>1.042719996051391</v>
       </c>
       <c r="J8">
-        <v>1.017226408866955</v>
+        <v>1.017245722821272</v>
       </c>
       <c r="K8">
-        <v>1.025299450303963</v>
+        <v>1.025315626201196</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.00917240874364</v>
+        <v>1.009191013218704</v>
+      </c>
+      <c r="N8">
+        <v>1.012227097335971</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9758649563281956</v>
+        <v>0.975903707106403</v>
       </c>
       <c r="D9">
-        <v>0.998733967705042</v>
+        <v>0.9987657732526594</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9768264191966912</v>
+        <v>0.9768632945301635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035331321035973</v>
+        <v>1.03534905303771</v>
       </c>
       <c r="J9">
-        <v>1.002299748763956</v>
+        <v>1.002337034039468</v>
       </c>
       <c r="K9">
-        <v>1.011847618850189</v>
+        <v>1.011878906714103</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9903070045361186</v>
+        <v>0.9903432443559915</v>
+      </c>
+      <c r="N9">
+        <v>1.001532858150479</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9615387512070206</v>
+        <v>0.9615923531628735</v>
       </c>
       <c r="D10">
-        <v>0.9873839721591595</v>
+        <v>0.9874278418388813</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.961431105449376</v>
+        <v>0.9614822691121319</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029858607397532</v>
+        <v>1.0298830085041</v>
       </c>
       <c r="J10">
-        <v>0.9913660474536476</v>
+        <v>0.9914172716792546</v>
       </c>
       <c r="K10">
-        <v>1.001984811238663</v>
+        <v>1.002027862249211</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9765334917060954</v>
+        <v>0.9765836315726369</v>
+      </c>
+      <c r="N10">
+        <v>0.9936752779865344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549784950421694</v>
+        <v>0.955039252695845</v>
       </c>
       <c r="D11">
-        <v>0.9821945046501465</v>
+        <v>0.9822441619592043</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9543901196166504</v>
+        <v>0.9544481979304509</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027333676598906</v>
+        <v>1.02736126776867</v>
       </c>
       <c r="J11">
-        <v>0.9863520381251799</v>
+        <v>0.9864099121763896</v>
       </c>
       <c r="K11">
-        <v>0.9974602039262135</v>
+        <v>0.9975088796991444</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9702266667969989</v>
+        <v>0.9702835067755744</v>
+      </c>
+      <c r="N11">
+        <v>0.9900665402394186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9524817744543933</v>
+        <v>0.9525453193501711</v>
       </c>
       <c r="D12">
-        <v>0.9802209296850444</v>
+        <v>0.9802728369228738</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9517117360320716</v>
+        <v>0.9517725129293345</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026370022566314</v>
+        <v>1.026398852322945</v>
       </c>
       <c r="J12">
-        <v>0.9844428182140754</v>
+        <v>0.9845032710750095</v>
       </c>
       <c r="K12">
-        <v>0.9957371358635766</v>
+        <v>0.9957879951572611</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9678264662896121</v>
+        <v>0.9678859165538343</v>
+      </c>
+      <c r="N12">
+        <v>0.9886916424328277</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9530201558060224</v>
+        <v>0.9530830965969276</v>
       </c>
       <c r="D13">
-        <v>0.9806464325747432</v>
+        <v>0.9806978523752907</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9522892326073591</v>
+        <v>0.9523494243679917</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026577940454593</v>
+        <v>1.026606501948515</v>
       </c>
       <c r="J13">
-        <v>0.984854555537493</v>
+        <v>0.9849144500055576</v>
       </c>
       <c r="K13">
-        <v>0.9961087363275463</v>
+        <v>0.9961591227154601</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9683440311241504</v>
+        <v>0.9684029156126736</v>
+      </c>
+      <c r="N13">
+        <v>0.9889881834779726</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9547733787465427</v>
+        <v>0.9548343640215071</v>
       </c>
       <c r="D14">
-        <v>0.9820323361221038</v>
+        <v>0.9820821772656322</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9541700529465295</v>
+        <v>0.9542283515317705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027254562340694</v>
+        <v>1.027282254743286</v>
       </c>
       <c r="J14">
-        <v>0.9861952065308864</v>
+        <v>0.9862532914191944</v>
       </c>
       <c r="K14">
-        <v>0.9973186673972289</v>
+        <v>0.9973675216427585</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.970029478552389</v>
+        <v>0.9700865316903594</v>
+      </c>
+      <c r="N14">
+        <v>0.989953615594831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558454457717791</v>
+        <v>0.9559052440144831</v>
       </c>
       <c r="D15">
-        <v>0.9828799913355455</v>
+        <v>0.9829288736105461</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9553203123195542</v>
+        <v>0.9553774624161293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027667954260789</v>
+        <v>1.027695118576716</v>
       </c>
       <c r="J15">
-        <v>0.9870148684962576</v>
+        <v>0.9870718534147283</v>
       </c>
       <c r="K15">
-        <v>0.9980583836667041</v>
+        <v>0.9981063068845752</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9710601114675944</v>
+        <v>0.9711160530119838</v>
+      </c>
+      <c r="N15">
+        <v>0.9905437719152236</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9619660978256382</v>
+        <v>0.9620192417886436</v>
       </c>
       <c r="D16">
-        <v>0.9877222070042729</v>
+        <v>0.9877657056948183</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9618899469985657</v>
+        <v>0.9619406687588707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030022707506738</v>
+        <v>1.030046903929251</v>
       </c>
       <c r="J16">
-        <v>0.9916925288140312</v>
+        <v>0.9917433259760129</v>
       </c>
       <c r="K16">
-        <v>1.00227939522267</v>
+        <v>1.002322085285639</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9769443378246278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9769940489192684</v>
+      </c>
+      <c r="N16">
+        <v>0.9939101487640254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9657057197574835</v>
+        <v>0.965754896727285</v>
       </c>
       <c r="D17">
-        <v>0.9906829454142776</v>
+        <v>0.9907232279005198</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9659061621070857</v>
+        <v>0.9659530596008497</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031456612068761</v>
+        <v>1.031479032993182</v>
       </c>
       <c r="J17">
-        <v>0.994548699137708</v>
+        <v>0.9945957898287274</v>
       </c>
       <c r="K17">
-        <v>1.004856332584119</v>
+        <v>1.00489589144366</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9805396076547066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9805856051616666</v>
+      </c>
+      <c r="N17">
+        <v>0.995964278778591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9678530198114363</v>
+        <v>0.9678999512575447</v>
       </c>
       <c r="D18">
-        <v>0.9923837295300723</v>
+        <v>0.9924221892453539</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9682131093479613</v>
+        <v>0.9682578447856806</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032278195117129</v>
+        <v>1.032299608945669</v>
       </c>
       <c r="J18">
-        <v>0.9961880349090654</v>
+        <v>0.9962330216453409</v>
       </c>
       <c r="K18">
-        <v>1.006335237662137</v>
+        <v>1.006373020271552</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9826040511801674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9826479468408988</v>
+      </c>
+      <c r="N18">
+        <v>0.9971427686929561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9685796090738598</v>
+        <v>0.9686257859052716</v>
       </c>
       <c r="D19">
-        <v>0.9929593449709798</v>
+        <v>0.9929971917766836</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9689938600640102</v>
+        <v>0.9690378693725502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032555893560075</v>
+        <v>1.03257696861226</v>
       </c>
       <c r="J19">
-        <v>0.9967426233800959</v>
+        <v>0.9967869021126339</v>
       </c>
       <c r="K19">
-        <v>1.006835523495321</v>
+        <v>1.006872708565936</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9833026087337842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9833457981008237</v>
+      </c>
+      <c r="N19">
+        <v>0.9975413661453033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9653080485272219</v>
+        <v>0.9653576439153257</v>
       </c>
       <c r="D20">
-        <v>0.9903680239147302</v>
+        <v>0.9904086458675431</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9654789921528559</v>
+        <v>0.9655262927263129</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031304313912712</v>
+        <v>1.031326922327526</v>
       </c>
       <c r="J20">
-        <v>0.994245044554374</v>
+        <v>0.9942925268115373</v>
       </c>
       <c r="K20">
-        <v>1.004582381174469</v>
+        <v>1.004622270703784</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9801572834981851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9802036726701545</v>
+      </c>
+      <c r="N20">
+        <v>0.9957459456170674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9542588094363559</v>
+        <v>0.9543203668045395</v>
       </c>
       <c r="D21">
-        <v>0.9816255328020802</v>
+        <v>0.9816758359138598</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9536179987219429</v>
+        <v>0.9536768510137184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027056047652916</v>
+        <v>1.02708399442418</v>
       </c>
       <c r="J21">
-        <v>0.9858017524280012</v>
+        <v>0.9858603670379642</v>
       </c>
       <c r="K21">
-        <v>0.9969635820268268</v>
+        <v>0.9970128847159073</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9695347992734212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9695923881650791</v>
+      </c>
+      <c r="N21">
+        <v>0.9896703015683287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9469608859604086</v>
+        <v>0.9470307263822024</v>
       </c>
       <c r="D22">
-        <v>0.975859844573213</v>
+        <v>0.9759168245877466</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.945791493846044</v>
+        <v>0.9458583767021607</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024234280695336</v>
+        <v>1.024265899963787</v>
       </c>
       <c r="J22">
-        <v>0.9802193846862057</v>
+        <v>0.9802856392060226</v>
       </c>
       <c r="K22">
-        <v>0.9919251859651175</v>
+        <v>0.9919809621396583</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9625191546958389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9625845018596164</v>
+      </c>
+      <c r="N22">
+        <v>0.9856488118759943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9508653186698997</v>
+        <v>0.9509306876775327</v>
       </c>
       <c r="D23">
-        <v>0.9789436182870253</v>
+        <v>0.9789969966485628</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9499780260268448</v>
+        <v>0.9500405705898026</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025745375760547</v>
+        <v>1.025775014916843</v>
       </c>
       <c r="J23">
-        <v>0.9832064700127748</v>
+        <v>0.9832686071642014</v>
       </c>
       <c r="K23">
-        <v>0.9946212839425574</v>
+        <v>0.9946735700221545</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9662725221721062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9663336808942484</v>
+      </c>
+      <c r="N23">
+        <v>0.9878010907443097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9654878435139707</v>
+        <v>0.9655372496271272</v>
       </c>
       <c r="D24">
-        <v>0.990510403896256</v>
+        <v>0.9905508722955263</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9656721215192048</v>
+        <v>0.9657192397479303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031373176415463</v>
+        <v>1.031395700023912</v>
       </c>
       <c r="J24">
-        <v>0.9943823349020361</v>
+        <v>0.9944296400494106</v>
       </c>
       <c r="K24">
-        <v>1.004706242429717</v>
+        <v>1.00474598238976</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9803301396764897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9803763516748476</v>
+      </c>
+      <c r="N24">
+        <v>0.9958446614431464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811386965424208</v>
+        <v>0.9811722233325202</v>
       </c>
       <c r="D25">
-        <v>1.002917330918894</v>
+        <v>1.002944876109894</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9825013006324312</v>
+        <v>0.9825331703067086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037329397840535</v>
+        <v>1.037344767949761</v>
       </c>
       <c r="J25">
-        <v>1.006317929162678</v>
+        <v>1.006350266072822</v>
       </c>
       <c r="K25">
-        <v>1.015470527263084</v>
+        <v>1.01549764803533</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9953774743171344</v>
+        <v>0.9954088263868259</v>
+      </c>
+      <c r="N25">
+        <v>1.004415848244428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927682671707266</v>
+        <v>0.9925913909323903</v>
       </c>
       <c r="D2">
-        <v>1.012151121560153</v>
+        <v>1.011207621502643</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.010876094504618</v>
       </c>
       <c r="F2">
-        <v>0.9950293319723953</v>
+        <v>1.016619093975832</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041699996205858</v>
+        <v>1.039433256327747</v>
       </c>
       <c r="J2">
-        <v>1.015167450777644</v>
+        <v>1.014995973004806</v>
       </c>
       <c r="K2">
-        <v>1.023443728299351</v>
+        <v>1.02251299369558</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.022185959339286</v>
       </c>
       <c r="M2">
-        <v>1.006558353237073</v>
+        <v>1.027851653721752</v>
       </c>
       <c r="N2">
-        <v>1.010739071123638</v>
+        <v>1.016437383708138</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000754894449752</v>
+        <v>1.001222935796556</v>
       </c>
       <c r="D3">
-        <v>1.018496885365249</v>
+        <v>1.01774554525174</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.017657863982739</v>
       </c>
       <c r="F3">
-        <v>1.003651026987812</v>
+        <v>1.023986820023507</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044665208270251</v>
+        <v>1.041952698643033</v>
       </c>
       <c r="J3">
-        <v>1.021225001414478</v>
+        <v>1.021680317776934</v>
       </c>
       <c r="K3">
-        <v>1.028898441367357</v>
+        <v>1.028156293844822</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.028069686449578</v>
       </c>
       <c r="M3">
-        <v>1.014237404422975</v>
+        <v>1.034321715388961</v>
       </c>
       <c r="N3">
-        <v>1.015073384481397</v>
+        <v>1.023131221016547</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005742822045585</v>
+        <v>1.006617451713988</v>
       </c>
       <c r="D4">
-        <v>1.02246154177835</v>
+        <v>1.021833937105224</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.021917048000485</v>
       </c>
       <c r="F4">
-        <v>1.009042647113455</v>
+        <v>1.028610122693284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046500736426398</v>
+        <v>1.043514210371761</v>
       </c>
       <c r="J4">
-        <v>1.025000757978971</v>
+        <v>1.025853383897222</v>
       </c>
       <c r="K4">
-        <v>1.032296228222049</v>
+        <v>1.03167579837687</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.03175795851687</v>
       </c>
       <c r="M4">
-        <v>1.019033146828693</v>
+        <v>1.038375088551054</v>
       </c>
       <c r="N4">
-        <v>1.017770381120738</v>
+        <v>1.027310213369384</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007799369454442</v>
+        <v>1.00884256282841</v>
       </c>
       <c r="D5">
-        <v>1.024096436631148</v>
+        <v>1.023520707550648</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.023678561821568</v>
       </c>
       <c r="F5">
-        <v>1.011267347339053</v>
+        <v>1.030521353304357</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047253544633353</v>
+        <v>1.044155067762425</v>
       </c>
       <c r="J5">
-        <v>1.026555693138538</v>
+        <v>1.027573503098244</v>
       </c>
       <c r="K5">
-        <v>1.033694949597654</v>
+        <v>1.033125612471384</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.033281713306709</v>
       </c>
       <c r="M5">
-        <v>1.021010422606719</v>
+        <v>1.040049129534848</v>
       </c>
       <c r="N5">
-        <v>1.01887993323409</v>
+        <v>1.029032775336971</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008142378764742</v>
+        <v>1.009213741443419</v>
       </c>
       <c r="D6">
-        <v>1.024369130358483</v>
+        <v>1.023802103155708</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.023972675147431</v>
       </c>
       <c r="F6">
-        <v>1.011638503508693</v>
+        <v>1.030840414323921</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047378868137957</v>
+        <v>1.044261778923279</v>
       </c>
       <c r="J6">
-        <v>1.026814930038573</v>
+        <v>1.02786037065896</v>
       </c>
       <c r="K6">
-        <v>1.033928109127892</v>
+        <v>1.033367346126798</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.033536032837031</v>
       </c>
       <c r="M6">
-        <v>1.021340208069234</v>
+        <v>1.040328500990439</v>
       </c>
       <c r="N6">
-        <v>1.019064849711121</v>
+        <v>1.029320050282528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005770457010813</v>
+        <v>1.006647348082542</v>
       </c>
       <c r="D7">
-        <v>1.022483509929752</v>
+        <v>1.021856598977114</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.021940697245251</v>
       </c>
       <c r="F7">
-        <v>1.009072534856804</v>
+        <v>1.028635785358717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046510868218939</v>
+        <v>1.04352283377722</v>
       </c>
       <c r="J7">
-        <v>1.025021659815107</v>
+        <v>1.025876500009674</v>
       </c>
       <c r="K7">
-        <v>1.03231503243957</v>
+        <v>1.031695285603489</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.031778422196479</v>
       </c>
       <c r="M7">
-        <v>1.01905971672021</v>
+        <v>1.038397572670196</v>
       </c>
       <c r="N7">
-        <v>1.017785300490056</v>
+        <v>1.027333362309367</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9955063617769224</v>
+        <v>0.9955497835413903</v>
       </c>
       <c r="D8">
-        <v>1.014326278716536</v>
+        <v>1.013447845527204</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.013195922897163</v>
       </c>
       <c r="F8">
-        <v>0.997983659873837</v>
+        <v>1.019140215055372</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042719996051391</v>
+        <v>1.040299486547708</v>
       </c>
       <c r="J8">
-        <v>1.017245722821272</v>
+        <v>1.017287869428182</v>
       </c>
       <c r="K8">
-        <v>1.025315626201196</v>
+        <v>1.02444868696469</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.024200065251675</v>
       </c>
       <c r="M8">
-        <v>1.009191013218704</v>
+        <v>1.030067014286401</v>
       </c>
       <c r="N8">
-        <v>1.012227097335971</v>
+        <v>1.018732534887319</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.975903707106403</v>
+        <v>0.9743862991585415</v>
       </c>
       <c r="D9">
-        <v>0.9987657732526594</v>
+        <v>0.9974396033309374</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9967043871688529</v>
       </c>
       <c r="F9">
-        <v>0.9768632945301635</v>
+        <v>1.001198218069044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03534905303771</v>
+        <v>1.034049800954273</v>
       </c>
       <c r="J9">
-        <v>1.002337034039468</v>
+        <v>1.000877135223055</v>
       </c>
       <c r="K9">
-        <v>1.011878906714103</v>
+        <v>1.010574358225647</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>1.009851160650786</v>
       </c>
       <c r="M9">
-        <v>0.9903432443559915</v>
+        <v>1.014271884888737</v>
       </c>
       <c r="N9">
-        <v>1.001532858150479</v>
+        <v>1.002298495557284</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9615923531628735</v>
+        <v>0.9589562655275635</v>
       </c>
       <c r="D10">
-        <v>0.9874278418388813</v>
+        <v>0.9858007463935092</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9848322814898661</v>
       </c>
       <c r="F10">
-        <v>0.9614822691121319</v>
+        <v>0.9882533330890395</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0298830085041</v>
+        <v>1.029430376495945</v>
       </c>
       <c r="J10">
-        <v>0.9914172716792546</v>
+        <v>0.9888985694249406</v>
       </c>
       <c r="K10">
-        <v>1.002027862249211</v>
+        <v>1.000431194335704</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9994809025690212</v>
       </c>
       <c r="M10">
-        <v>0.9765836315726369</v>
+        <v>1.002837966365932</v>
       </c>
       <c r="N10">
-        <v>0.9936752779865344</v>
+        <v>0.9903029188217755</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.955039252695845</v>
+        <v>0.9518958722069236</v>
       </c>
       <c r="D11">
-        <v>0.9822441619592043</v>
+        <v>0.9804865122971654</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.979442782781431</v>
       </c>
       <c r="F11">
-        <v>0.9544481979304509</v>
+        <v>0.9823686607361208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02736126776867</v>
+        <v>1.027303655335597</v>
       </c>
       <c r="J11">
-        <v>0.9864099121763896</v>
+        <v>0.9834164153892171</v>
       </c>
       <c r="K11">
-        <v>0.9975088796991444</v>
+        <v>0.9957860516288972</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9947630776674562</v>
       </c>
       <c r="M11">
-        <v>0.9702835067755744</v>
+        <v>0.9976309181818347</v>
       </c>
       <c r="N11">
-        <v>0.9900665402394186</v>
+        <v>0.9848129794985093</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9525453193501711</v>
+        <v>0.9492096260989661</v>
       </c>
       <c r="D12">
-        <v>0.9802728369228738</v>
+        <v>0.9784667039615738</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9773993872843522</v>
       </c>
       <c r="F12">
-        <v>0.9517725129293345</v>
+        <v>0.9801361561568275</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026398852322945</v>
+        <v>1.026492751314096</v>
       </c>
       <c r="J12">
-        <v>0.9845032710750095</v>
+        <v>0.9813306981297367</v>
       </c>
       <c r="K12">
-        <v>0.9957879951572611</v>
+        <v>0.9940184119596553</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9929727776970576</v>
       </c>
       <c r="M12">
-        <v>0.9678859165538343</v>
+        <v>0.9956540741243084</v>
       </c>
       <c r="N12">
-        <v>0.9886916424328277</v>
+        <v>0.9827243002812851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9530830965969276</v>
+        <v>0.9497888385812414</v>
       </c>
       <c r="D13">
-        <v>0.9806978523752907</v>
+        <v>0.9789021177685797</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9778396536114627</v>
       </c>
       <c r="F13">
-        <v>0.9523494243679917</v>
+        <v>0.9806172317369459</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026606501948515</v>
+        <v>1.026667675494103</v>
       </c>
       <c r="J13">
-        <v>0.9849144500055576</v>
+        <v>0.9817804170109348</v>
       </c>
       <c r="K13">
-        <v>0.9961591227154601</v>
+        <v>0.9943995626811376</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9933585839772351</v>
       </c>
       <c r="M13">
-        <v>0.9684029156126736</v>
+        <v>0.9960801224188863</v>
       </c>
       <c r="N13">
-        <v>0.9889881834779726</v>
+        <v>0.983174657814878</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9548343640215071</v>
+        <v>0.9516751688823266</v>
       </c>
       <c r="D14">
-        <v>0.9820821772656322</v>
+        <v>0.9803205193921447</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9792747477173885</v>
       </c>
       <c r="F14">
-        <v>0.9542283515317705</v>
+        <v>0.9821851031989177</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027282254743286</v>
+        <v>1.027237065407412</v>
       </c>
       <c r="J14">
-        <v>0.9862532914191944</v>
+        <v>0.9832450491927762</v>
       </c>
       <c r="K14">
-        <v>0.9973675216427585</v>
+        <v>0.9956408262006499</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9946158874927027</v>
       </c>
       <c r="M14">
-        <v>0.9700865316903594</v>
+        <v>0.9974684099694973</v>
       </c>
       <c r="N14">
-        <v>0.989953615594831</v>
+        <v>0.9846413699424132</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9559052440144831</v>
+        <v>0.9528287368454742</v>
       </c>
       <c r="D15">
-        <v>0.9829288736105461</v>
+        <v>0.9811882147129615</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9801533237294894</v>
       </c>
       <c r="F15">
-        <v>0.9553774624161293</v>
+        <v>0.9831447824941743</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027695118576716</v>
+        <v>1.027585046358536</v>
       </c>
       <c r="J15">
-        <v>0.9870718534147283</v>
+        <v>0.9841407466585543</v>
       </c>
       <c r="K15">
-        <v>0.9981063068845752</v>
+        <v>0.9963998765745719</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9953854115484303</v>
       </c>
       <c r="M15">
-        <v>0.9711160530119838</v>
+        <v>0.9983179811911164</v>
       </c>
       <c r="N15">
-        <v>0.9905437719152236</v>
+        <v>0.9855383394013308</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9620192417886436</v>
+        <v>0.9594163029218115</v>
       </c>
       <c r="D16">
-        <v>0.9877657056948183</v>
+        <v>0.9861472730474427</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9851843859518711</v>
       </c>
       <c r="F16">
-        <v>0.9619406687588707</v>
+        <v>0.9886376079734166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030046903929251</v>
+        <v>1.029568696397336</v>
       </c>
       <c r="J16">
-        <v>0.9917433259760129</v>
+        <v>0.989255768531388</v>
       </c>
       <c r="K16">
-        <v>1.002322085285639</v>
+        <v>1.000733801522131</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9997889128691414</v>
       </c>
       <c r="M16">
-        <v>0.9769940489192684</v>
+        <v>1.003177798734207</v>
       </c>
       <c r="N16">
-        <v>0.9939101487640254</v>
+        <v>0.9906606251919252</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.965754896727285</v>
+        <v>0.9634425933342275</v>
       </c>
       <c r="D17">
-        <v>0.9907232279005198</v>
+        <v>0.9891814250098512</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9882709168300241</v>
       </c>
       <c r="F17">
-        <v>0.9659530596008497</v>
+        <v>0.9920052085502975</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031479032993182</v>
+        <v>1.030777848826425</v>
       </c>
       <c r="J17">
-        <v>0.9945957898287274</v>
+        <v>0.9923819120285908</v>
       </c>
       <c r="K17">
-        <v>1.00489589144366</v>
+        <v>1.003381839849399</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.002487773012043</v>
       </c>
       <c r="M17">
-        <v>0.9805856051616666</v>
+        <v>1.006154882712267</v>
       </c>
       <c r="N17">
-        <v>0.995964278778591</v>
+        <v>0.9937912081714679</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9678999512575447</v>
+        <v>0.9657549945326874</v>
       </c>
       <c r="D18">
-        <v>0.9924221892453539</v>
+        <v>0.9909250547309563</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9900475421032651</v>
       </c>
       <c r="F18">
-        <v>0.9682578447856806</v>
+        <v>0.9939428630318409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032299608945669</v>
+        <v>1.031471070042083</v>
       </c>
       <c r="J18">
-        <v>0.9962330216453409</v>
+        <v>0.9941772207842434</v>
       </c>
       <c r="K18">
-        <v>1.006373020271552</v>
+        <v>1.004902294008348</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.004040308159905</v>
       </c>
       <c r="M18">
-        <v>0.9826479468408988</v>
+        <v>1.007866976118483</v>
       </c>
       <c r="N18">
-        <v>0.9971427686929561</v>
+        <v>0.9955890664714782</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9686257859052716</v>
+        <v>0.966537533296524</v>
       </c>
       <c r="D19">
-        <v>0.9929971917766836</v>
+        <v>0.9915152820541564</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9906494209687656</v>
       </c>
       <c r="F19">
-        <v>0.9690378693725502</v>
+        <v>0.9945991703060099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03257696861226</v>
+        <v>1.031705449525441</v>
       </c>
       <c r="J19">
-        <v>0.9967869021126339</v>
+        <v>0.994784745004746</v>
       </c>
       <c r="K19">
-        <v>1.006872708565936</v>
+        <v>1.005416758297991</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.004566111586839</v>
       </c>
       <c r="M19">
-        <v>0.9833457981008237</v>
+        <v>1.008446736979968</v>
       </c>
       <c r="N19">
-        <v>0.9975413661453033</v>
+        <v>0.996197453446058</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9653576439153257</v>
+        <v>0.9630143861459626</v>
       </c>
       <c r="D20">
-        <v>0.9904086458675431</v>
+        <v>0.9888586239910705</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9879422399740057</v>
       </c>
       <c r="F20">
-        <v>0.9655262927263129</v>
+        <v>0.991646680820325</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031326922327526</v>
+        <v>1.030649378367419</v>
       </c>
       <c r="J20">
-        <v>0.9942925268115373</v>
+        <v>0.9920494484989604</v>
       </c>
       <c r="K20">
-        <v>1.004622270703784</v>
+        <v>1.003100251568041</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.002200476735829</v>
       </c>
       <c r="M20">
-        <v>0.9802036726701545</v>
+        <v>1.005838020990585</v>
       </c>
       <c r="N20">
-        <v>0.9957459456170674</v>
+        <v>0.9934582725054915</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9543203668045395</v>
+        <v>0.9511215100576034</v>
       </c>
       <c r="D21">
-        <v>0.9816758359138598</v>
+        <v>0.9799041425114601</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9788533301081195</v>
       </c>
       <c r="F21">
-        <v>0.9536768510137184</v>
+        <v>0.9817247340670343</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02708399442418</v>
+        <v>1.027069989666233</v>
       </c>
       <c r="J21">
-        <v>0.9858603670379642</v>
+        <v>0.9828151598290448</v>
       </c>
       <c r="K21">
-        <v>0.9970128847159073</v>
+        <v>0.9952765079660911</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9942467217554708</v>
       </c>
       <c r="M21">
-        <v>0.9695923881650791</v>
+        <v>0.9970608105172145</v>
       </c>
       <c r="N21">
-        <v>0.9896703015683287</v>
+        <v>0.9842108700864763</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9470307263822024</v>
+        <v>0.9432711908411733</v>
       </c>
       <c r="D22">
-        <v>0.9759168245877466</v>
+        <v>0.9740058586713549</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9728961415303351</v>
       </c>
       <c r="F22">
-        <v>0.9458583767021607</v>
+        <v>0.9752134516045277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024265899963787</v>
+        <v>1.024697092579319</v>
       </c>
       <c r="J22">
-        <v>0.9802856392060226</v>
+        <v>0.9767202306691606</v>
       </c>
       <c r="K22">
-        <v>0.9919809621396583</v>
+        <v>0.9901104717597756</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9890243558558441</v>
       </c>
       <c r="M22">
-        <v>0.9625845018596164</v>
+        <v>0.9912924626442282</v>
       </c>
       <c r="N22">
-        <v>0.9856488118759943</v>
+        <v>0.9781072854280872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9509306876775327</v>
+        <v>0.9474706993590529</v>
       </c>
       <c r="D23">
-        <v>0.9789969966485628</v>
+        <v>0.9771598299803812</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9760787129759865</v>
       </c>
       <c r="F23">
-        <v>0.9500405705898026</v>
+        <v>0.9786928532334407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025775014916843</v>
+        <v>1.025967348366236</v>
       </c>
       <c r="J23">
-        <v>0.9832686071642014</v>
+        <v>0.9799805683613391</v>
       </c>
       <c r="K23">
-        <v>0.9946735700221545</v>
+        <v>0.9928740878718554</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9918152345861315</v>
       </c>
       <c r="M23">
-        <v>0.9663336808942484</v>
+        <v>0.9943756523999796</v>
       </c>
       <c r="N23">
-        <v>0.9878010907443097</v>
+        <v>0.9813722531737545</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9655372496271272</v>
+        <v>0.9632079855003207</v>
       </c>
       <c r="D24">
-        <v>0.9905508722955263</v>
+        <v>0.989004564316356</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.988090827821962</v>
       </c>
       <c r="F24">
-        <v>0.9657192397479303</v>
+        <v>0.9918087659561688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031395700023912</v>
+        <v>1.03070746575427</v>
       </c>
       <c r="J24">
-        <v>0.9944296400494106</v>
+        <v>0.9921997609798338</v>
       </c>
       <c r="K24">
-        <v>1.00474598238976</v>
+        <v>1.003227563363832</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>1.002330360231694</v>
       </c>
       <c r="M24">
-        <v>0.9803763516748476</v>
+        <v>1.005981272221421</v>
       </c>
       <c r="N24">
-        <v>0.9958446614431464</v>
+        <v>0.9936087984473284</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811722233325202</v>
+        <v>0.9800707831041595</v>
       </c>
       <c r="D25">
-        <v>1.002944876109894</v>
+        <v>1.001734957665437</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.001110343056634</v>
       </c>
       <c r="F25">
-        <v>0.9825331703067086</v>
+        <v>1.005996149729247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037344767949761</v>
+        <v>1.035739628830685</v>
       </c>
       <c r="J25">
-        <v>1.006350266072822</v>
+        <v>1.00528797608809</v>
       </c>
       <c r="K25">
-        <v>1.01549764803533</v>
+        <v>1.014306400222317</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.013691446797929</v>
       </c>
       <c r="M25">
-        <v>0.9954088263868259</v>
+        <v>1.018502090887586</v>
       </c>
       <c r="N25">
-        <v>1.004415848244428</v>
+        <v>1.006715600322277</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9925913909323903</v>
+        <v>0.9833499483723452</v>
       </c>
       <c r="D2">
-        <v>1.011207621502643</v>
+        <v>1.004483859609921</v>
       </c>
       <c r="E2">
-        <v>1.010876094504618</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.016619093975832</v>
+        <v>0.9925023948352392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039433256327747</v>
+        <v>1.03627004188164</v>
       </c>
       <c r="J2">
-        <v>1.014995973004806</v>
+        <v>1.006040325990625</v>
       </c>
       <c r="K2">
-        <v>1.02251299369558</v>
+        <v>1.015881078608941</v>
       </c>
       <c r="L2">
-        <v>1.022185959339286</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.027851653721752</v>
+        <v>1.004067181007014</v>
       </c>
       <c r="N2">
-        <v>1.016437383708138</v>
+        <v>1.005619899683071</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001222935796556</v>
+        <v>0.9893541910871263</v>
       </c>
       <c r="D3">
-        <v>1.01774554525174</v>
+        <v>1.008900907673408</v>
       </c>
       <c r="E3">
-        <v>1.017657863982739</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.023986820023507</v>
+        <v>0.9989772032345384</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041952698643033</v>
+        <v>1.037851176855556</v>
       </c>
       <c r="J3">
-        <v>1.021680317776934</v>
+        <v>1.01013933963181</v>
       </c>
       <c r="K3">
-        <v>1.028156293844822</v>
+        <v>1.019421152551432</v>
       </c>
       <c r="L3">
-        <v>1.028069686449578</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.034321715388961</v>
+        <v>1.009623187685933</v>
       </c>
       <c r="N3">
-        <v>1.023131221016547</v>
+        <v>1.007027314056252</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006617451713988</v>
+        <v>0.9931347990311622</v>
       </c>
       <c r="D4">
-        <v>1.021833937105224</v>
+        <v>1.011684276171139</v>
       </c>
       <c r="E4">
-        <v>1.021917048000485</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.028610122693284</v>
+        <v>1.003057790192555</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043514210371761</v>
+        <v>1.038834602192441</v>
       </c>
       <c r="J4">
-        <v>1.025853383897222</v>
+        <v>1.012715762719518</v>
       </c>
       <c r="K4">
-        <v>1.03167579837687</v>
+        <v>1.021643698348178</v>
       </c>
       <c r="L4">
-        <v>1.03175795851687</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.038375088551054</v>
+        <v>1.013119449945944</v>
       </c>
       <c r="N4">
-        <v>1.027310213369384</v>
+        <v>1.007911304377776</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00884256282841</v>
+        <v>0.9947003394158502</v>
       </c>
       <c r="D5">
-        <v>1.023520707550648</v>
+        <v>1.012837286156802</v>
       </c>
       <c r="E5">
-        <v>1.023678561821568</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.030521353304357</v>
+        <v>1.004748444714046</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044155067762425</v>
+        <v>1.03923886911836</v>
       </c>
       <c r="J5">
-        <v>1.027573503098244</v>
+        <v>1.013781515702975</v>
       </c>
       <c r="K5">
-        <v>1.033125612471384</v>
+        <v>1.022562428295426</v>
       </c>
       <c r="L5">
-        <v>1.033281713306709</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.040049129534848</v>
+        <v>1.014566725229715</v>
       </c>
       <c r="N5">
-        <v>1.029032775336971</v>
+        <v>1.008276809855899</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009213741443419</v>
+        <v>0.99496183657712</v>
       </c>
       <c r="D6">
-        <v>1.023802103155708</v>
+        <v>1.013029899426725</v>
       </c>
       <c r="E6">
-        <v>1.023972675147431</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.030840414323921</v>
+        <v>1.005030892898663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044261778923279</v>
+        <v>1.039306219110891</v>
       </c>
       <c r="J6">
-        <v>1.02786037065896</v>
+        <v>1.013959463581849</v>
       </c>
       <c r="K6">
-        <v>1.033367346126798</v>
+        <v>1.022715789505286</v>
       </c>
       <c r="L6">
-        <v>1.033536032837031</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.040328500990439</v>
+        <v>1.014808437383196</v>
       </c>
       <c r="N6">
-        <v>1.029320050282528</v>
+        <v>1.008337828159714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006647348082542</v>
+        <v>0.9931558099598498</v>
       </c>
       <c r="D7">
-        <v>1.021856598977114</v>
+        <v>1.011699749019017</v>
       </c>
       <c r="E7">
-        <v>1.021940697245251</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.028635785358717</v>
+        <v>1.003080476716032</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04352283377722</v>
+        <v>1.03884003961596</v>
       </c>
       <c r="J7">
-        <v>1.025876500009674</v>
+        <v>1.012730070621607</v>
       </c>
       <c r="K7">
-        <v>1.031695285603489</v>
+        <v>1.021656035007647</v>
       </c>
       <c r="L7">
-        <v>1.031778422196479</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.038397572670196</v>
+        <v>1.013138875718444</v>
       </c>
       <c r="N7">
-        <v>1.027333362309367</v>
+        <v>1.007916212002383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9955497835413903</v>
+        <v>0.9854015060243152</v>
       </c>
       <c r="D8">
-        <v>1.013447845527204</v>
+        <v>1.005992587268655</v>
       </c>
       <c r="E8">
-        <v>1.013195922897163</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.019140215055372</v>
+        <v>0.9947139674708489</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040299486547708</v>
+        <v>1.036812817121034</v>
       </c>
       <c r="J8">
-        <v>1.017287869428182</v>
+        <v>1.007441824346226</v>
       </c>
       <c r="K8">
-        <v>1.02444868696469</v>
+        <v>1.01709199243102</v>
       </c>
       <c r="L8">
-        <v>1.024200065251675</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.030067014286401</v>
+        <v>1.005966020743342</v>
       </c>
       <c r="N8">
-        <v>1.018732534887319</v>
+        <v>1.006101238260933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9743862991585415</v>
+        <v>0.970877956286478</v>
       </c>
       <c r="D9">
-        <v>0.9974396033309374</v>
+        <v>0.9953251904591369</v>
       </c>
       <c r="E9">
-        <v>0.9967043871688529</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.001198218069044</v>
+        <v>0.9790730398617478</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034049800954273</v>
+        <v>1.032920397166119</v>
       </c>
       <c r="J9">
-        <v>1.000877135223055</v>
+        <v>0.9975027287924555</v>
       </c>
       <c r="K9">
-        <v>1.010574358225647</v>
+        <v>1.008494571277263</v>
       </c>
       <c r="L9">
-        <v>1.009851160650786</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.014271884888737</v>
+        <v>0.9925150196187525</v>
       </c>
       <c r="N9">
-        <v>1.002298495557284</v>
+        <v>1.002685382424656</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9589562655275635</v>
+        <v>0.9605267781569862</v>
       </c>
       <c r="D10">
-        <v>0.9858007463935092</v>
+        <v>0.9877443204440827</v>
       </c>
       <c r="E10">
-        <v>0.9848322814898661</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9882533330890395</v>
+        <v>0.9679446507800589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029430376495945</v>
+        <v>1.030084942272546</v>
       </c>
       <c r="J10">
-        <v>0.9888985694249406</v>
+        <v>0.990399035832989</v>
       </c>
       <c r="K10">
-        <v>1.000431194335704</v>
+        <v>1.002338437735462</v>
       </c>
       <c r="L10">
-        <v>0.9994809025690212</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.002837966365932</v>
+        <v>0.982917841859836</v>
       </c>
       <c r="N10">
-        <v>0.9903029188217755</v>
+        <v>1.000241523855545</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9518958722069236</v>
+        <v>0.9558627248727819</v>
       </c>
       <c r="D11">
-        <v>0.9804865122971654</v>
+        <v>0.9843354773822272</v>
       </c>
       <c r="E11">
-        <v>0.979442782781431</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9823686607361208</v>
+        <v>0.9629347521673424</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027303655335597</v>
+        <v>1.028793677656384</v>
       </c>
       <c r="J11">
-        <v>0.9834164153892171</v>
+        <v>0.9871943538085245</v>
       </c>
       <c r="K11">
-        <v>0.9957860516288972</v>
+        <v>0.9995589757996487</v>
       </c>
       <c r="L11">
-        <v>0.9947630776674562</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9976309181818347</v>
+        <v>0.978591233750408</v>
       </c>
       <c r="N11">
-        <v>0.9848129794985093</v>
+        <v>0.9991386094015405</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9492096260989661</v>
+        <v>0.9541007125369347</v>
       </c>
       <c r="D12">
-        <v>0.9784667039615738</v>
+        <v>0.9830488737103552</v>
       </c>
       <c r="E12">
-        <v>0.9773993872843522</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9801361561568275</v>
+        <v>0.9610427182439413</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026492751314096</v>
+        <v>1.028303885299181</v>
       </c>
       <c r="J12">
-        <v>0.9813306981297367</v>
+        <v>0.9859831655204171</v>
       </c>
       <c r="K12">
-        <v>0.9940184119596553</v>
+        <v>0.9985081992398064</v>
       </c>
       <c r="L12">
-        <v>0.9929727776970576</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9956540741243084</v>
+        <v>0.9769563745893164</v>
       </c>
       <c r="N12">
-        <v>0.9827243002812851</v>
+        <v>0.9987217224434719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9497888385812414</v>
+        <v>0.9544800472839733</v>
       </c>
       <c r="D13">
-        <v>0.9789021177685797</v>
+        <v>0.983325802821749</v>
       </c>
       <c r="E13">
-        <v>0.9778396536114627</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9806172317369459</v>
+        <v>0.9614500164230596</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026667675494103</v>
+        <v>1.028409417848928</v>
       </c>
       <c r="J13">
-        <v>0.9817804170109348</v>
+        <v>0.9862439376289293</v>
       </c>
       <c r="K13">
-        <v>0.9943995626811376</v>
+        <v>0.9987344470083573</v>
       </c>
       <c r="L13">
-        <v>0.9933585839772351</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9960801224188863</v>
+        <v>0.9773083497539987</v>
       </c>
       <c r="N13">
-        <v>0.983174657814878</v>
+        <v>0.9988114812338603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9516751688823266</v>
+        <v>0.9557176935760771</v>
       </c>
       <c r="D14">
-        <v>0.9803205193921447</v>
+        <v>0.9842295514887868</v>
       </c>
       <c r="E14">
-        <v>0.9792747477173885</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9821851031989177</v>
+        <v>0.9627790060547696</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027237065407412</v>
+        <v>1.028753402338906</v>
       </c>
       <c r="J14">
-        <v>0.9832450491927762</v>
+        <v>0.9870946706404781</v>
       </c>
       <c r="K14">
-        <v>0.9956408262006499</v>
+        <v>0.9994725006190613</v>
       </c>
       <c r="L14">
-        <v>0.9946158874927027</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9974684099694973</v>
+        <v>0.9784566750140643</v>
       </c>
       <c r="N14">
-        <v>0.9846413699424132</v>
+        <v>0.9991042996669413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9528287368454742</v>
+        <v>0.9564762579329109</v>
       </c>
       <c r="D15">
-        <v>0.9811882147129615</v>
+        <v>0.9847836310682337</v>
       </c>
       <c r="E15">
-        <v>0.9801533237294894</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9831447824941743</v>
+        <v>0.9635936382945348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027585046358536</v>
+        <v>1.028963976646635</v>
       </c>
       <c r="J15">
-        <v>0.9841407466585543</v>
+        <v>0.9876160283636973</v>
       </c>
       <c r="K15">
-        <v>0.9963998765745719</v>
+        <v>0.9999247667695544</v>
       </c>
       <c r="L15">
-        <v>0.9953854115484303</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9983179811911164</v>
+        <v>0.9791604509443661</v>
       </c>
       <c r="N15">
-        <v>0.9855383394013308</v>
+        <v>0.9992837428072329</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594163029218115</v>
+        <v>0.960832297204902</v>
       </c>
       <c r="D16">
-        <v>0.9861472730474427</v>
+        <v>0.9879677745445022</v>
       </c>
       <c r="E16">
-        <v>0.9851843859518711</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9886376079734166</v>
+        <v>0.9682729130536634</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029568696397336</v>
+        <v>1.030169250112204</v>
       </c>
       <c r="J16">
-        <v>0.989255768531388</v>
+        <v>0.9906088845678147</v>
       </c>
       <c r="K16">
-        <v>1.000733801522131</v>
+        <v>1.002520398954015</v>
       </c>
       <c r="L16">
-        <v>0.9997889128691414</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.003177798734207</v>
+        <v>0.9832012103105537</v>
       </c>
       <c r="N16">
-        <v>0.9906606251919252</v>
+        <v>1.00031373738479</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9634425933342275</v>
+        <v>0.9635145117082418</v>
       </c>
       <c r="D17">
-        <v>0.9891814250098512</v>
+        <v>0.9899303294321783</v>
       </c>
       <c r="E17">
-        <v>0.9882709168300241</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9920052085502975</v>
+        <v>0.9711552851451947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030777848826425</v>
+        <v>1.030907870191157</v>
       </c>
       <c r="J17">
-        <v>0.9923819120285908</v>
+        <v>0.9924507589710888</v>
       </c>
       <c r="K17">
-        <v>1.003381839849399</v>
+        <v>1.004117250521751</v>
       </c>
       <c r="L17">
-        <v>1.002487773012043</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.006154882712267</v>
+        <v>0.9856887026240468</v>
       </c>
       <c r="N17">
-        <v>0.9937912081714679</v>
+        <v>1.000947520951782</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9657549945326874</v>
+        <v>0.9650616130138485</v>
       </c>
       <c r="D18">
-        <v>0.9909250547309563</v>
+        <v>0.9910629754649244</v>
       </c>
       <c r="E18">
-        <v>0.9900475421032651</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9939428630318409</v>
+        <v>0.9728182487654035</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031471070042083</v>
+        <v>1.031332613829837</v>
       </c>
       <c r="J18">
-        <v>0.9941772207842434</v>
+        <v>0.9935127805470038</v>
       </c>
       <c r="K18">
-        <v>1.004902294008348</v>
+        <v>1.005037777604326</v>
       </c>
       <c r="L18">
-        <v>1.004040308159905</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.007866976118483</v>
+        <v>0.9871232710346208</v>
       </c>
       <c r="N18">
-        <v>0.9955890664714782</v>
+        <v>1.001312918982681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.966537533296524</v>
+        <v>0.9655862492325383</v>
       </c>
       <c r="D19">
-        <v>0.9915152820541564</v>
+        <v>0.9914471708117241</v>
       </c>
       <c r="E19">
-        <v>0.9906494209687656</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9945991703060099</v>
+        <v>0.9733822452899954</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031705449525441</v>
+        <v>1.031476426743918</v>
       </c>
       <c r="J19">
-        <v>0.994784745004746</v>
+        <v>0.9938728565354723</v>
       </c>
       <c r="K19">
-        <v>1.005416758297991</v>
+        <v>1.005349842616068</v>
       </c>
       <c r="L19">
-        <v>1.004566111586839</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.008446736979968</v>
+        <v>0.9876097090241921</v>
       </c>
       <c r="N19">
-        <v>0.996197453446058</v>
+        <v>1.001436799051011</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9630143861459626</v>
+        <v>0.9632285495261925</v>
       </c>
       <c r="D20">
-        <v>0.9888586239910705</v>
+        <v>0.9897210251439942</v>
       </c>
       <c r="E20">
-        <v>0.9879422399740057</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.991646680820325</v>
+        <v>0.9708479407137557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030649378367419</v>
+        <v>1.030829256494972</v>
       </c>
       <c r="J20">
-        <v>0.9920494484989604</v>
+        <v>0.992254427048193</v>
       </c>
       <c r="K20">
-        <v>1.003100251568041</v>
+        <v>1.003947058483155</v>
       </c>
       <c r="L20">
-        <v>1.002200476735829</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.005838020990585</v>
+        <v>0.9854235230402645</v>
       </c>
       <c r="N20">
-        <v>0.9934582725054915</v>
+        <v>1.000879967814671</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9511215100576034</v>
+        <v>0.9553540732911016</v>
       </c>
       <c r="D21">
-        <v>0.9799041425114601</v>
+        <v>0.9839639956976595</v>
       </c>
       <c r="E21">
-        <v>0.9788533301081195</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9817247340670343</v>
+        <v>0.9623885318674595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027069989666233</v>
+        <v>1.028652393244607</v>
       </c>
       <c r="J21">
-        <v>0.9828151598290448</v>
+        <v>0.986844738648063</v>
       </c>
       <c r="K21">
-        <v>0.9952765079660911</v>
+        <v>0.9992556798950357</v>
       </c>
       <c r="L21">
-        <v>0.9942467217554708</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9970608105172145</v>
+        <v>0.9781193061405294</v>
       </c>
       <c r="N21">
-        <v>0.9842108700864763</v>
+        <v>0.9990182753984614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9432711908411733</v>
+        <v>0.9502306617926585</v>
       </c>
       <c r="D22">
-        <v>0.9740058586713549</v>
+        <v>0.980225420973557</v>
       </c>
       <c r="E22">
-        <v>0.9728961415303351</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9752134516045277</v>
+        <v>0.9568882338338521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024697092579319</v>
+        <v>1.027224576175946</v>
       </c>
       <c r="J22">
-        <v>0.9767202306691606</v>
+        <v>0.9833220951894774</v>
       </c>
       <c r="K22">
-        <v>0.9901104717597756</v>
+        <v>0.9961990649082456</v>
       </c>
       <c r="L22">
-        <v>0.9890243558558441</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9912924626442282</v>
+        <v>0.9733650125788266</v>
       </c>
       <c r="N22">
-        <v>0.9781072854280872</v>
+        <v>0.9978057205048525</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9474706993590529</v>
+        <v>0.9529638391758737</v>
       </c>
       <c r="D23">
-        <v>0.9771598299803812</v>
+        <v>0.9822191023497064</v>
       </c>
       <c r="E23">
-        <v>0.9760787129759865</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9786928532334407</v>
+        <v>0.9598221291349719</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025967348366236</v>
+        <v>1.027987319911474</v>
       </c>
       <c r="J23">
-        <v>0.9799805683613391</v>
+        <v>0.9852015589226258</v>
       </c>
       <c r="K23">
-        <v>0.9928740878718554</v>
+        <v>0.9978300314153363</v>
       </c>
       <c r="L23">
-        <v>0.9918152345861315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9943756523999796</v>
+        <v>0.9759014514633869</v>
       </c>
       <c r="N23">
-        <v>0.9813722531737545</v>
+        <v>0.99845268458199</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9632079855003207</v>
+        <v>0.9633578170983289</v>
       </c>
       <c r="D24">
-        <v>0.989004564316356</v>
+        <v>0.9898156379641257</v>
       </c>
       <c r="E24">
-        <v>0.988090827821962</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9918087659561688</v>
+        <v>0.9709868727308406</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03070746575427</v>
+        <v>1.03086479738639</v>
       </c>
       <c r="J24">
-        <v>0.9921997609798338</v>
+        <v>0.9923431789327672</v>
       </c>
       <c r="K24">
-        <v>1.003227563363832</v>
+        <v>1.004023994497774</v>
       </c>
       <c r="L24">
-        <v>1.002330360231694</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.005981272221421</v>
+        <v>0.9855433966328542</v>
       </c>
       <c r="N24">
-        <v>0.9936087984473284</v>
+        <v>1.000910505350467</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9800707831041595</v>
+        <v>0.9747433126817001</v>
       </c>
       <c r="D25">
-        <v>1.001734957665437</v>
+        <v>0.9981610355523958</v>
       </c>
       <c r="E25">
-        <v>1.001110343056634</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.005996149729247</v>
+        <v>0.9832324505511276</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035739628830685</v>
+        <v>1.033967073470595</v>
       </c>
       <c r="J25">
-        <v>1.00528797608809</v>
+        <v>1.000151621293886</v>
       </c>
       <c r="K25">
-        <v>1.014306400222317</v>
+        <v>1.010787966310944</v>
       </c>
       <c r="L25">
-        <v>1.013691446797929</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.018502090887586</v>
+        <v>0.9960967602639182</v>
       </c>
       <c r="N25">
-        <v>1.006715600322277</v>
+        <v>1.003596223549745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9833499483723452</v>
+        <v>1.02147381031754</v>
       </c>
       <c r="D2">
-        <v>1.004483859609921</v>
+        <v>1.026935930692248</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9925023948352392</v>
+        <v>1.032195857781933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03627004188164</v>
+        <v>1.029693403081173</v>
       </c>
       <c r="J2">
-        <v>1.006040325990625</v>
+        <v>1.026665076591334</v>
       </c>
       <c r="K2">
-        <v>1.015881078608941</v>
+        <v>1.029757124067765</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.004067181007014</v>
+        <v>1.035001787395342</v>
       </c>
       <c r="N2">
-        <v>1.005619899683071</v>
+        <v>1.012885763548367</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9893541910871263</v>
+        <v>1.02267872641413</v>
       </c>
       <c r="D3">
-        <v>1.008900907673408</v>
+        <v>1.02783275713465</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9989772032345384</v>
+        <v>1.033565685585866</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037851176855556</v>
+        <v>1.029934320392649</v>
       </c>
       <c r="J3">
-        <v>1.01013933963181</v>
+        <v>1.027506297678012</v>
       </c>
       <c r="K3">
-        <v>1.019421152551432</v>
+        <v>1.030461328387339</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.009623187685933</v>
+        <v>1.036178835819625</v>
       </c>
       <c r="N3">
-        <v>1.007027314056252</v>
+        <v>1.013170150947261</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9931347990311622</v>
+        <v>1.02345761553967</v>
       </c>
       <c r="D4">
-        <v>1.011684276171139</v>
+        <v>1.028412227140846</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.003057790192555</v>
+        <v>1.034451508610921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038834602192441</v>
+        <v>1.030088504429528</v>
       </c>
       <c r="J4">
-        <v>1.012715762719518</v>
+        <v>1.028049388238501</v>
       </c>
       <c r="K4">
-        <v>1.021643698348178</v>
+        <v>1.030915533209401</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.013119449945944</v>
+        <v>1.03693939560252</v>
       </c>
       <c r="N4">
-        <v>1.007911304377776</v>
+        <v>1.013353593170838</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9947003394158502</v>
+        <v>1.023784878663995</v>
       </c>
       <c r="D5">
-        <v>1.012837286156802</v>
+        <v>1.028655637362063</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.004748444714046</v>
+        <v>1.03482378140362</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03923886911836</v>
+        <v>1.03015291564208</v>
       </c>
       <c r="J5">
-        <v>1.013781515702975</v>
+        <v>1.028277409537356</v>
       </c>
       <c r="K5">
-        <v>1.022562428295426</v>
+        <v>1.031106132170648</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.014566725229715</v>
+        <v>1.037258882212729</v>
       </c>
       <c r="N5">
-        <v>1.008276809855899</v>
+        <v>1.013430575060719</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.99496183657712</v>
+        <v>1.023839817004756</v>
       </c>
       <c r="D6">
-        <v>1.013029899426725</v>
+        <v>1.028696495380066</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.005030892898663</v>
+        <v>1.034886280293858</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039306219110891</v>
+        <v>1.030163706673264</v>
       </c>
       <c r="J6">
-        <v>1.013959463581849</v>
+        <v>1.028315678132047</v>
       </c>
       <c r="K6">
-        <v>1.022715789505286</v>
+        <v>1.031138114163909</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.014808437383196</v>
+        <v>1.037312510695102</v>
       </c>
       <c r="N6">
-        <v>1.008337828159714</v>
+        <v>1.013443492627693</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9931558099598498</v>
+        <v>1.023461989156436</v>
       </c>
       <c r="D7">
-        <v>1.011699749019017</v>
+        <v>1.02841548038031</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.003080476716032</v>
+        <v>1.034456483433333</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03884003961596</v>
+        <v>1.030089366696817</v>
       </c>
       <c r="J7">
-        <v>1.012730070621607</v>
+        <v>1.028052436223063</v>
       </c>
       <c r="K7">
-        <v>1.021656035007647</v>
+        <v>1.030918081370697</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.013138875718444</v>
+        <v>1.036943665587229</v>
       </c>
       <c r="N7">
-        <v>1.007916212002383</v>
+        <v>1.013354622345135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9854015060243152</v>
+        <v>1.021881179039342</v>
       </c>
       <c r="D8">
-        <v>1.005992587268655</v>
+        <v>1.027239191431005</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9947139674708489</v>
+        <v>1.032658913077265</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036812817121034</v>
+        <v>1.029775175704205</v>
       </c>
       <c r="J8">
-        <v>1.007441824346226</v>
+        <v>1.026949628188569</v>
       </c>
       <c r="K8">
-        <v>1.01709199243102</v>
+        <v>1.029995416855188</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.005966020743342</v>
+        <v>1.035399799783103</v>
       </c>
       <c r="N8">
-        <v>1.006101238260933</v>
+        <v>1.012981993076818</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.970877956286478</v>
+        <v>1.019089541191017</v>
       </c>
       <c r="D9">
-        <v>0.9953251904591369</v>
+        <v>1.025159951569914</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9790730398617478</v>
+        <v>1.029487003785712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032920397166119</v>
+        <v>1.02920844283266</v>
       </c>
       <c r="J9">
-        <v>0.9975027287924555</v>
+        <v>1.024996791095644</v>
       </c>
       <c r="K9">
-        <v>1.008494571277263</v>
+        <v>1.028358301259951</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9925150196187525</v>
+        <v>1.032670975207532</v>
       </c>
       <c r="N9">
-        <v>1.002685382424656</v>
+        <v>1.012320940981862</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9605267781569862</v>
+        <v>1.017224191951641</v>
       </c>
       <c r="D10">
-        <v>0.9877443204440827</v>
+        <v>1.02376935497197</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9679446507800589</v>
+        <v>1.027369225643723</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030084942272546</v>
+        <v>1.02882178404928</v>
       </c>
       <c r="J10">
-        <v>0.990399035832989</v>
+        <v>1.023688359724563</v>
       </c>
       <c r="K10">
-        <v>1.002338437735462</v>
+        <v>1.02725922900441</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.982917841859836</v>
+        <v>1.030845947054773</v>
       </c>
       <c r="N10">
-        <v>1.000241523855545</v>
+        <v>1.011877224612884</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9558627248727819</v>
+        <v>1.01641542215689</v>
       </c>
       <c r="D11">
-        <v>0.9843354773822272</v>
+        <v>1.023166138526038</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9629347521673424</v>
+        <v>1.026451397845881</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028793677656384</v>
+        <v>1.028652251840789</v>
       </c>
       <c r="J11">
-        <v>0.9871943538085245</v>
+        <v>1.023120215812311</v>
       </c>
       <c r="K11">
-        <v>0.9995589757996487</v>
+        <v>1.026781480629322</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.978591233750408</v>
+        <v>1.030054264398304</v>
       </c>
       <c r="N11">
-        <v>0.9991386094015405</v>
+        <v>1.011684367230116</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9541007125369347</v>
+        <v>1.016114845780794</v>
       </c>
       <c r="D12">
-        <v>0.9830488737103552</v>
+        <v>1.022941913110113</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9610427182439413</v>
+        <v>1.026110348399033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028303885299181</v>
+        <v>1.028588962750941</v>
       </c>
       <c r="J12">
-        <v>0.9859831655204171</v>
+        <v>1.02290894134837</v>
       </c>
       <c r="K12">
-        <v>0.9985081992398064</v>
+        <v>1.026603744865088</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9769563745893164</v>
+        <v>1.029759978720007</v>
       </c>
       <c r="N12">
-        <v>0.9987217224434719</v>
+        <v>1.011612621701958</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9544800472839733</v>
+        <v>1.01617932788341</v>
       </c>
       <c r="D13">
-        <v>0.983325802821749</v>
+        <v>1.022990017673184</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9614500164230596</v>
+        <v>1.026183510502026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028409417848928</v>
+        <v>1.028602552846279</v>
       </c>
       <c r="J13">
-        <v>0.9862439376289293</v>
+        <v>1.022954271361814</v>
       </c>
       <c r="K13">
-        <v>0.9987344470083573</v>
+        <v>1.026641882434062</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9773083497539987</v>
+        <v>1.029823113995994</v>
       </c>
       <c r="N13">
-        <v>0.9988114812338603</v>
+        <v>1.011628016337917</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9557176935760771</v>
+        <v>1.016390579772585</v>
       </c>
       <c r="D14">
-        <v>0.9842295514887868</v>
+        <v>1.023147607339027</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9627790060547696</v>
+        <v>1.026423209217454</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028753402338906</v>
+        <v>1.028647026822022</v>
       </c>
       <c r="J14">
-        <v>0.9870946706404781</v>
+        <v>1.02310275672004</v>
       </c>
       <c r="K14">
-        <v>0.9994725006190613</v>
+        <v>1.026766794632873</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9784566750140643</v>
+        <v>1.030029943153859</v>
       </c>
       <c r="N14">
-        <v>0.9991042996669413</v>
+        <v>1.011678438964751</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9564762579329109</v>
+        <v>1.016520717284999</v>
       </c>
       <c r="D15">
-        <v>0.9847836310682337</v>
+        <v>1.023244681749427</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9635936382945348</v>
+        <v>1.026570878490987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028963976646635</v>
+        <v>1.028674386639209</v>
       </c>
       <c r="J15">
-        <v>0.9876160283636973</v>
+        <v>1.023194211504808</v>
       </c>
       <c r="K15">
-        <v>0.9999247667695544</v>
+        <v>1.026843720168109</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9791604509443661</v>
+        <v>1.030157348215616</v>
       </c>
       <c r="N15">
-        <v>0.9992837428072329</v>
+        <v>1.011709491449334</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.960832297204902</v>
+        <v>1.017277844654027</v>
       </c>
       <c r="D16">
-        <v>0.9879677745445022</v>
+        <v>1.023809365569488</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9682729130536634</v>
+        <v>1.027430121256473</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030169250112204</v>
+        <v>1.028832990894632</v>
       </c>
       <c r="J16">
-        <v>0.9906088845678147</v>
+        <v>1.023726031971316</v>
       </c>
       <c r="K16">
-        <v>1.002520398954015</v>
+        <v>1.027290896604032</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9832012103105537</v>
+        <v>1.030898457872393</v>
       </c>
       <c r="N16">
-        <v>1.00031373738479</v>
+        <v>1.011890008578147</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9635145117082418</v>
+        <v>1.017752483827563</v>
       </c>
       <c r="D17">
-        <v>0.9899303294321783</v>
+        <v>1.024163286631911</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9711552851451947</v>
+        <v>1.027968879754112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030907870191157</v>
+        <v>1.028931914635706</v>
       </c>
       <c r="J17">
-        <v>0.9924507589710888</v>
+        <v>1.024059202949374</v>
       </c>
       <c r="K17">
-        <v>1.004117250521751</v>
+        <v>1.02757090386533</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9856887026240468</v>
+        <v>1.031362949700067</v>
       </c>
       <c r="N17">
-        <v>1.000947520951782</v>
+        <v>1.012003047504502</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9650616130138485</v>
+        <v>1.018029230690787</v>
       </c>
       <c r="D18">
-        <v>0.9910629754649244</v>
+        <v>1.024369618825822</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9728182487654035</v>
+        <v>1.028283050073197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031332613829837</v>
+        <v>1.028989411998728</v>
       </c>
       <c r="J18">
-        <v>0.9935127805470038</v>
+        <v>1.024253383231713</v>
       </c>
       <c r="K18">
-        <v>1.005037777604326</v>
+        <v>1.027734049685309</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9871232710346208</v>
+        <v>1.031633741901466</v>
       </c>
       <c r="N18">
-        <v>1.001312918982681</v>
+        <v>1.012068911271132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9655862492325383</v>
+        <v>1.018123577010103</v>
       </c>
       <c r="D19">
-        <v>0.9914471708117241</v>
+        <v>1.02443995519197</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9733822452899954</v>
+        <v>1.028390160878686</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031476426743918</v>
+        <v>1.029008982674946</v>
       </c>
       <c r="J19">
-        <v>0.9938728565354723</v>
+        <v>1.024319567861241</v>
       </c>
       <c r="K19">
-        <v>1.005349842616068</v>
+        <v>1.027789648112869</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9876097090241921</v>
+        <v>1.031726051757458</v>
       </c>
       <c r="N19">
-        <v>1.001436799051011</v>
+        <v>1.01209135727504</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9632285495261925</v>
+        <v>1.01770157012958</v>
       </c>
       <c r="D20">
-        <v>0.9897210251439942</v>
+        <v>1.024125325020357</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9708479407137557</v>
+        <v>1.027911084211017</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030829256494972</v>
+        <v>1.028921322076809</v>
       </c>
       <c r="J20">
-        <v>0.992254427048193</v>
+        <v>1.024023472671082</v>
       </c>
       <c r="K20">
-        <v>1.003947058483155</v>
+        <v>1.027540880128677</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9854235230402645</v>
+        <v>1.031313128430495</v>
       </c>
       <c r="N20">
-        <v>1.000879967814671</v>
+        <v>1.011990926736059</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9553540732911016</v>
+        <v>1.016328375894211</v>
       </c>
       <c r="D21">
-        <v>0.9839639956976595</v>
+        <v>1.023101205651735</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9623885318674595</v>
+        <v>1.026352627473546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028652393244607</v>
+        <v>1.028633939109696</v>
       </c>
       <c r="J21">
-        <v>0.986844738648063</v>
+        <v>1.023059038142316</v>
       </c>
       <c r="K21">
-        <v>0.9992556798950357</v>
+        <v>1.026730018813613</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9781193061405294</v>
+        <v>1.029969043214266</v>
       </c>
       <c r="N21">
-        <v>0.9990182753984614</v>
+        <v>1.011663593792435</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9502306617926585</v>
+        <v>1.01546404767501</v>
       </c>
       <c r="D22">
-        <v>0.980225420973557</v>
+        <v>1.022456351540207</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9568882338338521</v>
+        <v>1.025372024763645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027224576175946</v>
+        <v>1.028451413943543</v>
       </c>
       <c r="J22">
-        <v>0.9833220951894774</v>
+        <v>1.022451267077506</v>
       </c>
       <c r="K22">
-        <v>0.9961990649082456</v>
+        <v>1.026218584441043</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9733650125788266</v>
+        <v>1.029122691526893</v>
       </c>
       <c r="N22">
-        <v>0.9978057205048525</v>
+        <v>1.011457151461077</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9529638391758737</v>
+        <v>1.015922335416894</v>
       </c>
       <c r="D23">
-        <v>0.9822191023497064</v>
+        <v>1.022798291548146</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9598221291349719</v>
+        <v>1.025891932468533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027987319911474</v>
+        <v>1.028548348301949</v>
       </c>
       <c r="J23">
-        <v>0.9852015589226258</v>
+        <v>1.022773590867804</v>
       </c>
       <c r="K23">
-        <v>0.9978300314153363</v>
+        <v>1.026489859069259</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9759014514633869</v>
+        <v>1.02957148052458</v>
       </c>
       <c r="N23">
-        <v>0.99845268458199</v>
+        <v>1.011566650899733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9633578170983289</v>
+        <v>1.017724576153583</v>
       </c>
       <c r="D24">
-        <v>0.9898156379641257</v>
+        <v>1.024142478559854</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9709868727308406</v>
+        <v>1.027937199771166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03086479738639</v>
+        <v>1.028926109026015</v>
       </c>
       <c r="J24">
-        <v>0.9923431789327672</v>
+        <v>1.024039618117638</v>
       </c>
       <c r="K24">
-        <v>1.004023994497774</v>
+        <v>1.027554447111882</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9855433966328542</v>
+        <v>1.031335640943957</v>
       </c>
       <c r="N24">
-        <v>1.000910505350467</v>
+        <v>1.01199640380564</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9747433126817001</v>
+        <v>1.01981198283154</v>
       </c>
       <c r="D25">
-        <v>0.9981610355523958</v>
+        <v>1.025698260423169</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9832324505511276</v>
+        <v>1.030307559771338</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033967073470595</v>
+        <v>1.029356511679296</v>
       </c>
       <c r="J25">
-        <v>1.000151621293886</v>
+        <v>1.025502790146021</v>
       </c>
       <c r="K25">
-        <v>1.010787966310944</v>
+        <v>1.028782878734688</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9960967602639182</v>
+        <v>1.033377450871438</v>
       </c>
       <c r="N25">
-        <v>1.003596223549745</v>
+        <v>1.012492367590683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02147381031754</v>
+        <v>0.9833499483723452</v>
       </c>
       <c r="D2">
-        <v>1.026935930692248</v>
+        <v>1.004483859609921</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.032195857781933</v>
+        <v>0.9925023948352392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029693403081173</v>
+        <v>1.03627004188164</v>
       </c>
       <c r="J2">
-        <v>1.026665076591334</v>
+        <v>1.006040325990625</v>
       </c>
       <c r="K2">
-        <v>1.029757124067765</v>
+        <v>1.015881078608942</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.035001787395342</v>
+        <v>1.004067181007014</v>
       </c>
       <c r="N2">
-        <v>1.012885763548367</v>
+        <v>1.005619899683071</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02267872641413</v>
+        <v>0.9893541910871253</v>
       </c>
       <c r="D3">
-        <v>1.02783275713465</v>
+        <v>1.008900907673407</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.033565685585866</v>
+        <v>0.9989772032345374</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029934320392649</v>
+        <v>1.037851176855555</v>
       </c>
       <c r="J3">
-        <v>1.027506297678012</v>
+        <v>1.010139339631809</v>
       </c>
       <c r="K3">
-        <v>1.030461328387339</v>
+        <v>1.019421152551431</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.036178835819625</v>
+        <v>1.009623187685932</v>
       </c>
       <c r="N3">
-        <v>1.013170150947261</v>
+        <v>1.007027314056251</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02345761553967</v>
+        <v>0.9931347990311624</v>
       </c>
       <c r="D4">
-        <v>1.028412227140846</v>
+        <v>1.011684276171139</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.034451508610921</v>
+        <v>1.003057790192556</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030088504429528</v>
+        <v>1.038834602192441</v>
       </c>
       <c r="J4">
-        <v>1.028049388238501</v>
+        <v>1.012715762719518</v>
       </c>
       <c r="K4">
-        <v>1.030915533209401</v>
+        <v>1.021643698348178</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.03693939560252</v>
+        <v>1.013119449945944</v>
       </c>
       <c r="N4">
-        <v>1.013353593170838</v>
+        <v>1.007911304377776</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023784878663995</v>
+        <v>0.9947003394158502</v>
       </c>
       <c r="D5">
-        <v>1.028655637362063</v>
+        <v>1.012837286156802</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.03482378140362</v>
+        <v>1.004748444714046</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03015291564208</v>
+        <v>1.03923886911836</v>
       </c>
       <c r="J5">
-        <v>1.028277409537356</v>
+        <v>1.013781515702975</v>
       </c>
       <c r="K5">
-        <v>1.031106132170648</v>
+        <v>1.022562428295426</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.037258882212729</v>
+        <v>1.014566725229715</v>
       </c>
       <c r="N5">
-        <v>1.013430575060719</v>
+        <v>1.008276809855899</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023839817004756</v>
+        <v>0.9949618365771193</v>
       </c>
       <c r="D6">
-        <v>1.028696495380066</v>
+        <v>1.013029899426724</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.034886280293858</v>
+        <v>1.005030892898662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030163706673264</v>
+        <v>1.039306219110891</v>
       </c>
       <c r="J6">
-        <v>1.028315678132047</v>
+        <v>1.013959463581848</v>
       </c>
       <c r="K6">
-        <v>1.031138114163909</v>
+        <v>1.022715789505286</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.037312510695102</v>
+        <v>1.014808437383195</v>
       </c>
       <c r="N6">
-        <v>1.013443492627693</v>
+        <v>1.008337828159714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023461989156436</v>
+        <v>0.9931558099598493</v>
       </c>
       <c r="D7">
-        <v>1.02841548038031</v>
+        <v>1.011699749019017</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.034456483433333</v>
+        <v>1.003080476716031</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030089366696817</v>
+        <v>1.03884003961596</v>
       </c>
       <c r="J7">
-        <v>1.028052436223063</v>
+        <v>1.012730070621607</v>
       </c>
       <c r="K7">
-        <v>1.030918081370697</v>
+        <v>1.021656035007646</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.036943665587229</v>
+        <v>1.013138875718444</v>
       </c>
       <c r="N7">
-        <v>1.013354622345135</v>
+        <v>1.007916212002383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021881179039342</v>
+        <v>0.9854015060243152</v>
       </c>
       <c r="D8">
-        <v>1.027239191431005</v>
+        <v>1.005992587268655</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.032658913077265</v>
+        <v>0.9947139674708486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029775175704205</v>
+        <v>1.036812817121034</v>
       </c>
       <c r="J8">
-        <v>1.026949628188569</v>
+        <v>1.007441824346226</v>
       </c>
       <c r="K8">
-        <v>1.029995416855188</v>
+        <v>1.01709199243102</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.035399799783103</v>
+        <v>1.005966020743341</v>
       </c>
       <c r="N8">
-        <v>1.012981993076818</v>
+        <v>1.006101238260933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019089541191017</v>
+        <v>0.9708779562864781</v>
       </c>
       <c r="D9">
-        <v>1.025159951569914</v>
+        <v>0.9953251904591375</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.029487003785712</v>
+        <v>0.9790730398617481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02920844283266</v>
+        <v>1.032920397166119</v>
       </c>
       <c r="J9">
-        <v>1.024996791095644</v>
+        <v>0.9975027287924559</v>
       </c>
       <c r="K9">
-        <v>1.028358301259951</v>
+        <v>1.008494571277264</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.032670975207532</v>
+        <v>0.992515019618753</v>
       </c>
       <c r="N9">
-        <v>1.012320940981862</v>
+        <v>1.002685382424657</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017224191951641</v>
+        <v>0.9605267781569864</v>
       </c>
       <c r="D10">
-        <v>1.02376935497197</v>
+        <v>0.9877443204440829</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.027369225643723</v>
+        <v>0.9679446507800592</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02882178404928</v>
+        <v>1.030084942272546</v>
       </c>
       <c r="J10">
-        <v>1.023688359724563</v>
+        <v>0.9903990358329892</v>
       </c>
       <c r="K10">
-        <v>1.02725922900441</v>
+        <v>1.002338437735462</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.030845947054773</v>
+        <v>0.9829178418598361</v>
       </c>
       <c r="N10">
-        <v>1.011877224612884</v>
+        <v>1.000241523855545</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01641542215689</v>
+        <v>0.9558627248727823</v>
       </c>
       <c r="D11">
-        <v>1.023166138526038</v>
+        <v>0.9843354773822275</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.026451397845881</v>
+        <v>0.9629347521673425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028652251840789</v>
+        <v>1.028793677656385</v>
       </c>
       <c r="J11">
-        <v>1.023120215812311</v>
+        <v>0.9871943538085249</v>
       </c>
       <c r="K11">
-        <v>1.026781480629322</v>
+        <v>0.9995589757996493</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.030054264398304</v>
+        <v>0.9785912337504082</v>
       </c>
       <c r="N11">
-        <v>1.011684367230116</v>
+        <v>0.9991386094015405</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016114845780794</v>
+        <v>0.9541007125369342</v>
       </c>
       <c r="D12">
-        <v>1.022941913110113</v>
+        <v>0.983048873710355</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.026110348399033</v>
+        <v>0.9610427182439409</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028588962750941</v>
+        <v>1.028303885299181</v>
       </c>
       <c r="J12">
-        <v>1.02290894134837</v>
+        <v>0.9859831655204169</v>
       </c>
       <c r="K12">
-        <v>1.026603744865088</v>
+        <v>0.9985081992398062</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.029759978720007</v>
+        <v>0.9769563745893161</v>
       </c>
       <c r="N12">
-        <v>1.011612621701958</v>
+        <v>0.9987217224434719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01617932788341</v>
+        <v>0.9544800472839727</v>
       </c>
       <c r="D13">
-        <v>1.022990017673184</v>
+        <v>0.9833258028217485</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.026183510502026</v>
+        <v>0.9614500164230585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028602552846279</v>
+        <v>1.028409417848928</v>
       </c>
       <c r="J13">
-        <v>1.022954271361814</v>
+        <v>0.9862439376289288</v>
       </c>
       <c r="K13">
-        <v>1.026641882434062</v>
+        <v>0.9987344470083568</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.029823113995994</v>
+        <v>0.9773083497539979</v>
       </c>
       <c r="N13">
-        <v>1.011628016337917</v>
+        <v>0.9988114812338601</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016390579772585</v>
+        <v>0.9557176935760774</v>
       </c>
       <c r="D14">
-        <v>1.023147607339027</v>
+        <v>0.984229551488787</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.026423209217454</v>
+        <v>0.9627790060547696</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028647026822022</v>
+        <v>1.028753402338906</v>
       </c>
       <c r="J14">
-        <v>1.02310275672004</v>
+        <v>0.9870946706404785</v>
       </c>
       <c r="K14">
-        <v>1.026766794632873</v>
+        <v>0.9994725006190616</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.030029943153859</v>
+        <v>0.9784566750140644</v>
       </c>
       <c r="N14">
-        <v>1.011678438964751</v>
+        <v>0.9991042996669413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016520717284999</v>
+        <v>0.9564762579329095</v>
       </c>
       <c r="D15">
-        <v>1.023244681749427</v>
+        <v>0.9847836310682323</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.026570878490987</v>
+        <v>0.9635936382945336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028674386639209</v>
+        <v>1.028963976646634</v>
       </c>
       <c r="J15">
-        <v>1.023194211504808</v>
+        <v>0.9876160283636961</v>
       </c>
       <c r="K15">
-        <v>1.026843720168109</v>
+        <v>0.9999247667695532</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.030157348215616</v>
+        <v>0.9791604509443652</v>
       </c>
       <c r="N15">
-        <v>1.011709491449334</v>
+        <v>0.9992837428072324</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017277844654027</v>
+        <v>0.9608322972049018</v>
       </c>
       <c r="D16">
-        <v>1.023809365569488</v>
+        <v>0.9879677745445024</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.027430121256473</v>
+        <v>0.968272913053663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028832990894632</v>
+        <v>1.030169250112204</v>
       </c>
       <c r="J16">
-        <v>1.023726031971316</v>
+        <v>0.9906088845678146</v>
       </c>
       <c r="K16">
-        <v>1.027290896604032</v>
+        <v>1.002520398954015</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.030898457872393</v>
+        <v>0.9832012103105535</v>
       </c>
       <c r="N16">
-        <v>1.011890008578147</v>
+        <v>1.00031373738479</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017752483827563</v>
+        <v>0.9635145117082429</v>
       </c>
       <c r="D17">
-        <v>1.024163286631911</v>
+        <v>0.9899303294321793</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.027968879754112</v>
+        <v>0.9711552851451962</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028931914635706</v>
+        <v>1.030907870191157</v>
       </c>
       <c r="J17">
-        <v>1.024059202949374</v>
+        <v>0.99245075897109</v>
       </c>
       <c r="K17">
-        <v>1.02757090386533</v>
+        <v>1.004117250521752</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.031362949700067</v>
+        <v>0.9856887026240482</v>
       </c>
       <c r="N17">
-        <v>1.012003047504502</v>
+        <v>1.000947520951782</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018029230690787</v>
+        <v>0.9650616130138483</v>
       </c>
       <c r="D18">
-        <v>1.024369618825822</v>
+        <v>0.9910629754649239</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.028283050073197</v>
+        <v>0.9728182487654033</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028989411998728</v>
+        <v>1.031332613829837</v>
       </c>
       <c r="J18">
-        <v>1.024253383231713</v>
+        <v>0.9935127805470035</v>
       </c>
       <c r="K18">
-        <v>1.027734049685309</v>
+        <v>1.005037777604326</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.031633741901466</v>
+        <v>0.9871232710346206</v>
       </c>
       <c r="N18">
-        <v>1.012068911271132</v>
+        <v>1.001312918982681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018123577010103</v>
+        <v>0.9655862492325382</v>
       </c>
       <c r="D19">
-        <v>1.02443995519197</v>
+        <v>0.9914471708117238</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.028390160878686</v>
+        <v>0.9733822452899953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029008982674946</v>
+        <v>1.031476426743918</v>
       </c>
       <c r="J19">
-        <v>1.024319567861241</v>
+        <v>0.9938728565354722</v>
       </c>
       <c r="K19">
-        <v>1.027789648112869</v>
+        <v>1.005349842616068</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.031726051757458</v>
+        <v>0.9876097090241921</v>
       </c>
       <c r="N19">
-        <v>1.01209135727504</v>
+        <v>1.001436799051011</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01770157012958</v>
+        <v>0.9632285495261931</v>
       </c>
       <c r="D20">
-        <v>1.024125325020357</v>
+        <v>0.9897210251439948</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.027911084211017</v>
+        <v>0.9708479407137562</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028921322076809</v>
+        <v>1.030829256494973</v>
       </c>
       <c r="J20">
-        <v>1.024023472671082</v>
+        <v>0.9922544270481934</v>
       </c>
       <c r="K20">
-        <v>1.027540880128677</v>
+        <v>1.003947058483155</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.031313128430495</v>
+        <v>0.9854235230402649</v>
       </c>
       <c r="N20">
-        <v>1.011990926736059</v>
+        <v>1.000879967814672</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016328375894211</v>
+        <v>0.9553540732911017</v>
       </c>
       <c r="D21">
-        <v>1.023101205651735</v>
+        <v>0.9839639956976597</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.026352627473546</v>
+        <v>0.9623885318674595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028633939109696</v>
+        <v>1.028652393244607</v>
       </c>
       <c r="J21">
-        <v>1.023059038142316</v>
+        <v>0.9868447386480633</v>
       </c>
       <c r="K21">
-        <v>1.026730018813613</v>
+        <v>0.9992556798950359</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.029969043214266</v>
+        <v>0.9781193061405294</v>
       </c>
       <c r="N21">
-        <v>1.011663593792435</v>
+        <v>0.9990182753984616</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01546404767501</v>
+        <v>0.9502306617926592</v>
       </c>
       <c r="D22">
-        <v>1.022456351540207</v>
+        <v>0.9802254209735577</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.025372024763645</v>
+        <v>0.956888233833853</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028451413943543</v>
+        <v>1.027224576175947</v>
       </c>
       <c r="J22">
-        <v>1.022451267077506</v>
+        <v>0.9833220951894782</v>
       </c>
       <c r="K22">
-        <v>1.026218584441043</v>
+        <v>0.9961990649082463</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.029122691526893</v>
+        <v>0.9733650125788275</v>
       </c>
       <c r="N22">
-        <v>1.011457151461077</v>
+        <v>0.9978057205048528</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015922335416894</v>
+        <v>0.9529638391758742</v>
       </c>
       <c r="D23">
-        <v>1.022798291548146</v>
+        <v>0.9822191023497069</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.025891932468533</v>
+        <v>0.9598221291349722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028548348301949</v>
+        <v>1.027987319911474</v>
       </c>
       <c r="J23">
-        <v>1.022773590867804</v>
+        <v>0.9852015589226264</v>
       </c>
       <c r="K23">
-        <v>1.026489859069259</v>
+        <v>0.9978300314153369</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.02957148052458</v>
+        <v>0.9759014514633872</v>
       </c>
       <c r="N23">
-        <v>1.011566650899733</v>
+        <v>0.9984526845819902</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017724576153583</v>
+        <v>0.9633578170983284</v>
       </c>
       <c r="D24">
-        <v>1.024142478559854</v>
+        <v>0.9898156379641254</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.027937199771166</v>
+        <v>0.9709868727308402</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028926109026015</v>
+        <v>1.03086479738639</v>
       </c>
       <c r="J24">
-        <v>1.024039618117638</v>
+        <v>0.9923431789327668</v>
       </c>
       <c r="K24">
-        <v>1.027554447111882</v>
+        <v>1.004023994497774</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.031335640943957</v>
+        <v>0.985543396632854</v>
       </c>
       <c r="N24">
-        <v>1.01199640380564</v>
+        <v>1.000910505350467</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01981198283154</v>
+        <v>0.9747433126817001</v>
       </c>
       <c r="D25">
-        <v>1.025698260423169</v>
+        <v>0.9981610355523959</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.030307559771338</v>
+        <v>0.9832324505511277</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029356511679296</v>
+        <v>1.033967073470595</v>
       </c>
       <c r="J25">
-        <v>1.025502790146021</v>
+        <v>1.000151621293886</v>
       </c>
       <c r="K25">
-        <v>1.028782878734688</v>
+        <v>1.010787966310944</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.033377450871438</v>
+        <v>0.9960967602639184</v>
       </c>
       <c r="N25">
-        <v>1.012492367590683</v>
+        <v>1.003596223549745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9833499483723452</v>
+        <v>0.9987506964119924</v>
       </c>
       <c r="D2">
-        <v>1.004483859609921</v>
+        <v>1.019244106294207</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.022517743003401</v>
       </c>
       <c r="F2">
-        <v>0.9925023948352392</v>
+        <v>1.030606144956644</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03627004188164</v>
+        <v>1.043757176375033</v>
       </c>
       <c r="J2">
-        <v>1.006040325990625</v>
+        <v>1.020968838250254</v>
       </c>
       <c r="K2">
-        <v>1.015881078608942</v>
+        <v>1.030441695528897</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.03367203621897</v>
       </c>
       <c r="M2">
-        <v>1.004067181007014</v>
+        <v>1.04165493945822</v>
       </c>
       <c r="N2">
-        <v>1.005619899683071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010631136967273</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041539480272084</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03259509938836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9893541910871253</v>
+        <v>1.003097288777017</v>
       </c>
       <c r="D3">
-        <v>1.008900907673407</v>
+        <v>1.02204162614827</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.025972304819836</v>
       </c>
       <c r="F3">
-        <v>0.9989772032345374</v>
+        <v>1.033822633820162</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037851176855555</v>
+        <v>1.044562858134014</v>
       </c>
       <c r="J3">
-        <v>1.010139339631809</v>
+        <v>1.023503873225041</v>
       </c>
       <c r="K3">
-        <v>1.019421152551431</v>
+        <v>1.03240003896237</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.036283309732335</v>
       </c>
       <c r="M3">
-        <v>1.009623187685932</v>
+        <v>1.044040292147103</v>
       </c>
       <c r="N3">
-        <v>1.007027314056251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011511381849659</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043427321817462</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033977156375265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9931347990311624</v>
+        <v>1.005854302238407</v>
       </c>
       <c r="D4">
-        <v>1.011684276171139</v>
+        <v>1.023819592790481</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.028174447615166</v>
       </c>
       <c r="F4">
-        <v>1.003057790192556</v>
+        <v>1.035872417091322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038834602192441</v>
+        <v>1.045063989383268</v>
       </c>
       <c r="J4">
-        <v>1.012715762719518</v>
+        <v>1.025109430703991</v>
       </c>
       <c r="K4">
-        <v>1.021643698348178</v>
+        <v>1.033638791023732</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.037944319903233</v>
       </c>
       <c r="M4">
-        <v>1.013119449945944</v>
+        <v>1.045556344733599</v>
       </c>
       <c r="N4">
-        <v>1.007911304377776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012068596634575</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044627169957694</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034853976706307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9947003394158502</v>
+        <v>1.007005098511693</v>
       </c>
       <c r="D5">
-        <v>1.012837286156802</v>
+        <v>1.024564851334176</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.029094456640197</v>
       </c>
       <c r="F5">
-        <v>1.004748444714046</v>
+        <v>1.036728699722187</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03923886911836</v>
+        <v>1.045272362639762</v>
       </c>
       <c r="J5">
-        <v>1.013781515702975</v>
+        <v>1.025780796169965</v>
       </c>
       <c r="K5">
-        <v>1.022562428295426</v>
+        <v>1.034158170306952</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.038637848937387</v>
       </c>
       <c r="M5">
-        <v>1.014566725229715</v>
+        <v>1.046189155548621</v>
       </c>
       <c r="N5">
-        <v>1.008276809855899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.0123021172931</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045127994271543</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0352284440589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949618365771193</v>
+        <v>1.007203167275837</v>
       </c>
       <c r="D6">
-        <v>1.013029899426724</v>
+        <v>1.024695996538827</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.029250840842628</v>
       </c>
       <c r="F6">
-        <v>1.005030892898662</v>
+        <v>1.036874327032709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039306219110891</v>
+        <v>1.045310057998594</v>
       </c>
       <c r="J6">
-        <v>1.013959463581848</v>
+        <v>1.025898504149928</v>
       </c>
       <c r="K6">
-        <v>1.022715789505286</v>
+        <v>1.03425136814376</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.03875623969839</v>
       </c>
       <c r="M6">
-        <v>1.014808437383195</v>
+        <v>1.046297289833821</v>
       </c>
       <c r="N6">
-        <v>1.008337828159714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01234377875113</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045213574758207</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035303144039291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9931558099598493</v>
+        <v>1.005884776407327</v>
       </c>
       <c r="D7">
-        <v>1.011699749019017</v>
+        <v>1.0238469134616</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.028193158003003</v>
       </c>
       <c r="F7">
-        <v>1.003080476716031</v>
+        <v>1.035890031541337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03884003961596</v>
+        <v>1.045074831638104</v>
       </c>
       <c r="J7">
-        <v>1.012730070621607</v>
+        <v>1.025133101519377</v>
       </c>
       <c r="K7">
-        <v>1.021656035007646</v>
+        <v>1.033662892834719</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.037959928111438</v>
       </c>
       <c r="M7">
-        <v>1.013138875718444</v>
+        <v>1.045570901598415</v>
       </c>
       <c r="N7">
-        <v>1.007916212002383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012078807639454</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044638690674623</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034891263658334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854015060243152</v>
+        <v>1.000250345465634</v>
       </c>
       <c r="D8">
-        <v>1.005992587268655</v>
+        <v>1.020217994059035</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.023700458303203</v>
       </c>
       <c r="F8">
-        <v>0.9947139674708486</v>
+        <v>1.031707609391843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036812817121034</v>
+        <v>1.04404378688407</v>
       </c>
       <c r="J8">
-        <v>1.007441824346226</v>
+        <v>1.02185128822511</v>
       </c>
       <c r="K8">
-        <v>1.01709199243102</v>
+        <v>1.031130890687844</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.034568683617635</v>
       </c>
       <c r="M8">
-        <v>1.005966020743341</v>
+        <v>1.042474549379275</v>
       </c>
       <c r="N8">
-        <v>1.006101238260933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010940227071352</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042188145347104</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033105509309349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9708779562864781</v>
+        <v>0.9898506774960163</v>
       </c>
       <c r="D9">
-        <v>0.9953251904591375</v>
+        <v>1.01353846327993</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.01550760203185</v>
       </c>
       <c r="F9">
-        <v>0.9790730398617481</v>
+        <v>1.02407575911779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032920397166119</v>
+        <v>1.042055375001551</v>
       </c>
       <c r="J9">
-        <v>0.9975027287924559</v>
+        <v>1.015766996428937</v>
       </c>
       <c r="K9">
-        <v>1.008494571277264</v>
+        <v>1.026415641816805</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.028353991683185</v>
       </c>
       <c r="M9">
-        <v>0.992515019618753</v>
+        <v>1.036789937637276</v>
       </c>
       <c r="N9">
-        <v>1.002685382424657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00882391677607</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037689152768896</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029768250731067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9605267781569864</v>
+        <v>0.982660708581735</v>
       </c>
       <c r="D10">
-        <v>0.9877443204440829</v>
+        <v>1.008956354538376</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.010030357789241</v>
       </c>
       <c r="F10">
-        <v>0.9679446507800592</v>
+        <v>1.0189925123824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030084942272546</v>
+        <v>1.040655821450978</v>
       </c>
       <c r="J10">
-        <v>0.9903990358329892</v>
+        <v>1.011579571676469</v>
       </c>
       <c r="K10">
-        <v>1.002338437735462</v>
+        <v>1.023165760510087</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.024220842237417</v>
       </c>
       <c r="M10">
-        <v>0.9829178418598361</v>
+        <v>1.033027114310535</v>
       </c>
       <c r="N10">
-        <v>1.000241523855545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007373569531077</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034762783826442</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027487312969748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9558627248727823</v>
+        <v>0.9800597983495558</v>
       </c>
       <c r="D11">
-        <v>0.9843354773822275</v>
+        <v>1.007386318174084</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.00905727873456</v>
       </c>
       <c r="F11">
-        <v>0.9629347521673425</v>
+        <v>1.01826284827112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028793677656385</v>
+        <v>1.040326224018206</v>
       </c>
       <c r="J11">
-        <v>0.9871943538085249</v>
+        <v>1.010286302287969</v>
       </c>
       <c r="K11">
-        <v>0.9995589757996493</v>
+        <v>1.022170270833081</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.023810385777402</v>
       </c>
       <c r="M11">
-        <v>0.9785912337504082</v>
+        <v>1.03284838102301</v>
       </c>
       <c r="N11">
-        <v>0.9991386094015405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006983163816534</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035059272267939</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026816645804102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9541007125369342</v>
+        <v>0.9793008378316682</v>
       </c>
       <c r="D12">
-        <v>0.983048873710355</v>
+        <v>1.006960830131049</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.009238678841066</v>
       </c>
       <c r="F12">
-        <v>0.9610427182439409</v>
+        <v>1.018553979041841</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028303885299181</v>
+        <v>1.040311681021122</v>
       </c>
       <c r="J12">
-        <v>0.9859831655204169</v>
+        <v>1.010007813193164</v>
       </c>
       <c r="K12">
-        <v>0.9985081992398062</v>
+        <v>1.021955875742389</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.024190995240919</v>
       </c>
       <c r="M12">
-        <v>0.9769563745893161</v>
+        <v>1.033334142619458</v>
       </c>
       <c r="N12">
-        <v>0.9987217224434719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006932436505318</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03577091494258</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026665058370084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9544800472839727</v>
+        <v>0.9799289821720943</v>
       </c>
       <c r="D13">
-        <v>0.9833258028217485</v>
+        <v>1.007408219947471</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.010331646403238</v>
       </c>
       <c r="F13">
-        <v>0.9614500164230585</v>
+        <v>1.019669100665805</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028409417848928</v>
+        <v>1.04055278491977</v>
       </c>
       <c r="J13">
-        <v>0.9862439376289288</v>
+        <v>1.010511933317048</v>
       </c>
       <c r="K13">
-        <v>0.9987344470083568</v>
+        <v>1.022351291288086</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.025220171060862</v>
       </c>
       <c r="M13">
-        <v>0.9773083497539979</v>
+        <v>1.034386127728432</v>
       </c>
       <c r="N13">
-        <v>0.9988114812338601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007149389214061</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036880014779683</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026942115763709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9557176935760774</v>
+        <v>0.9809967505374487</v>
       </c>
       <c r="D14">
-        <v>0.984229551488787</v>
+        <v>1.008118059174393</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.011501296871717</v>
       </c>
       <c r="F14">
-        <v>0.9627790060547696</v>
+        <v>1.020816276909269</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028753402338906</v>
+        <v>1.040836990793258</v>
       </c>
       <c r="J14">
-        <v>0.9870946706404785</v>
+        <v>1.011218845794369</v>
       </c>
       <c r="K14">
-        <v>0.9994725006190616</v>
+        <v>1.022905257856232</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.026226215601165</v>
       </c>
       <c r="M14">
-        <v>0.9784566750140644</v>
+        <v>1.035372492091503</v>
       </c>
       <c r="N14">
-        <v>0.9991042996669413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007422690121855</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037833324124256</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027335236556705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9564762579329095</v>
+        <v>0.9815644711300363</v>
       </c>
       <c r="D15">
-        <v>0.9847836310682323</v>
+        <v>1.008487762891414</v>
       </c>
       <c r="E15">
-        <v>0.933278105071747</v>
+        <v>1.012001749979196</v>
       </c>
       <c r="F15">
-        <v>0.9635936382945336</v>
+        <v>1.021295533410127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028963976646634</v>
+        <v>1.040966174650381</v>
       </c>
       <c r="J15">
-        <v>0.9876160283636961</v>
+        <v>1.011568954117745</v>
       </c>
       <c r="K15">
-        <v>0.9999247667695532</v>
+        <v>1.023180319845556</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>1.026630134885087</v>
       </c>
       <c r="M15">
-        <v>0.9791604509443652</v>
+        <v>1.035756958000447</v>
       </c>
       <c r="N15">
-        <v>0.9992837428072324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007550741031005</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038174790922825</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027535651704534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608322972049018</v>
+        <v>0.9844878732198979</v>
       </c>
       <c r="D16">
-        <v>0.9879677745445024</v>
+        <v>1.010340867254462</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.014114517901823</v>
       </c>
       <c r="F16">
-        <v>0.968272913053663</v>
+        <v>1.02326086946843</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030169250112204</v>
+        <v>1.0415264014232</v>
       </c>
       <c r="J16">
-        <v>0.9906088845678146</v>
+        <v>1.013251948858245</v>
       </c>
       <c r="K16">
-        <v>1.002520398954015</v>
+        <v>1.024489754093391</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>1.028197579035734</v>
       </c>
       <c r="M16">
-        <v>0.9832012103105535</v>
+        <v>1.037186986450669</v>
       </c>
       <c r="N16">
-        <v>1.00031373738479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008125806148223</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039266320993681</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028464682918093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9635145117082429</v>
+        <v>0.9861735158626018</v>
       </c>
       <c r="D17">
-        <v>0.9899303294321793</v>
+        <v>1.011393452495548</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.015124299262004</v>
       </c>
       <c r="F17">
-        <v>0.9711552851451962</v>
+        <v>1.024164442146598</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030907870191157</v>
+        <v>1.041805465112232</v>
       </c>
       <c r="J17">
-        <v>0.99245075897109</v>
+        <v>1.01417359411019</v>
       </c>
       <c r="K17">
-        <v>1.004117250521752</v>
+        <v>1.025204619391747</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>1.028872241499391</v>
       </c>
       <c r="M17">
-        <v>0.9856887026240482</v>
+        <v>1.03776164383758</v>
       </c>
       <c r="N17">
-        <v>1.000947520951782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00842400619504</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039591369028039</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028972740239965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9650616130138483</v>
+        <v>0.9869406588709022</v>
       </c>
       <c r="D18">
-        <v>0.9910629754649239</v>
+        <v>1.011838807311198</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>1.015216982450526</v>
       </c>
       <c r="F18">
-        <v>0.9728182487654033</v>
+        <v>1.024168437338026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031332613829837</v>
+        <v>1.041858100878348</v>
       </c>
       <c r="J18">
-        <v>0.9935127805470035</v>
+        <v>1.01450627568787</v>
       </c>
       <c r="K18">
-        <v>1.005037777604326</v>
+        <v>1.025456269355241</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>1.02877812066352</v>
       </c>
       <c r="M18">
-        <v>0.9871232710346206</v>
+        <v>1.037582636857591</v>
       </c>
       <c r="N18">
-        <v>1.001312918982681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00850292246351</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039211849249292</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029138917554118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9655862492325382</v>
+        <v>0.9869016938697784</v>
       </c>
       <c r="D19">
-        <v>0.9914471708117238</v>
+        <v>1.011763844638286</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>1.014481315332841</v>
       </c>
       <c r="F19">
-        <v>0.9733822452899953</v>
+        <v>1.023357801609516</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031476426743918</v>
+        <v>1.04172193439786</v>
       </c>
       <c r="J19">
-        <v>0.9938728565354722</v>
+        <v>1.014331257475952</v>
       </c>
       <c r="K19">
-        <v>1.005349842616068</v>
+        <v>1.025319090707924</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816593</v>
+        <v>1.027991449346999</v>
       </c>
       <c r="M19">
-        <v>0.9876097090241921</v>
+        <v>1.036722722628</v>
       </c>
       <c r="N19">
-        <v>1.001436799051011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008399326057684</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038205780377204</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029048383601922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9632285495261931</v>
+        <v>0.9845682793752554</v>
       </c>
       <c r="D20">
-        <v>0.9897210251439948</v>
+        <v>1.010189780718818</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.011471606088177</v>
       </c>
       <c r="F20">
-        <v>0.9708479407137562</v>
+        <v>1.020331412896832</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030829256494973</v>
+        <v>1.041044876162479</v>
       </c>
       <c r="J20">
-        <v>0.9922544270481934</v>
+        <v>1.012707307805665</v>
       </c>
       <c r="K20">
-        <v>1.003947058483155</v>
+        <v>1.024055790676531</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.025315696405297</v>
       </c>
       <c r="M20">
-        <v>0.9854235230402649</v>
+        <v>1.034025937865259</v>
       </c>
       <c r="N20">
-        <v>1.000879967814672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007770598727746</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035542654638292</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028159128763428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9553540732911017</v>
+        <v>0.9790392441290942</v>
       </c>
       <c r="D21">
-        <v>0.9839639956976597</v>
+        <v>1.006657697482886</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.007097458792458</v>
       </c>
       <c r="F21">
-        <v>0.9623885318674595</v>
+        <v>1.016235394150461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028652393244607</v>
+        <v>1.039915323913842</v>
       </c>
       <c r="J21">
-        <v>0.9868447386480633</v>
+        <v>1.009440240230798</v>
       </c>
       <c r="K21">
-        <v>0.9992556798950359</v>
+        <v>1.021514026063988</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.021945603779336</v>
       </c>
       <c r="M21">
-        <v>0.9781193061405294</v>
+        <v>1.030915574711094</v>
       </c>
       <c r="N21">
-        <v>0.9990182753984616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006627860029271</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03303995491935</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026365241568006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9502306617926592</v>
+        <v>0.9755015511722167</v>
       </c>
       <c r="D22">
-        <v>0.9802254209735577</v>
+        <v>1.004401076719466</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.004381136462123</v>
       </c>
       <c r="F22">
-        <v>0.956888233833853</v>
+        <v>1.013702352942037</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027224576175947</v>
+        <v>1.039188980847373</v>
       </c>
       <c r="J22">
-        <v>0.9833220951894782</v>
+        <v>1.007355977728401</v>
       </c>
       <c r="K22">
-        <v>0.9961990649082463</v>
+        <v>1.019885848709737</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.019866298953527</v>
       </c>
       <c r="M22">
-        <v>0.9733650125788275</v>
+        <v>1.029007164542309</v>
       </c>
       <c r="N22">
-        <v>0.9978057205048528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005899303457594</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031529558749501</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025200366216521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9529638391758742</v>
+        <v>0.9773702336596631</v>
       </c>
       <c r="D23">
-        <v>0.9822191023497069</v>
+        <v>1.005585486229437</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.005818837524185</v>
       </c>
       <c r="F23">
-        <v>0.9598221291349722</v>
+        <v>1.015043316082634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027987319911474</v>
+        <v>1.039568801568403</v>
       </c>
       <c r="J23">
-        <v>0.9852015589226264</v>
+        <v>1.008451682346706</v>
       </c>
       <c r="K23">
-        <v>0.9978300314153369</v>
+        <v>1.02073683297374</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.020965735453442</v>
       </c>
       <c r="M23">
-        <v>0.9759014514633872</v>
+        <v>1.03001648806938</v>
       </c>
       <c r="N23">
-        <v>0.9984526845819902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006280040149965</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032328380297297</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025792311312831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9633578170983284</v>
+        <v>0.9845807103075983</v>
       </c>
       <c r="D24">
-        <v>0.9898156379641254</v>
+        <v>1.01017985291021</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.011392284266475</v>
       </c>
       <c r="F24">
-        <v>0.9709868727308402</v>
+        <v>1.020239998801386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03086479738639</v>
+        <v>1.041022686269692</v>
       </c>
       <c r="J24">
-        <v>0.9923431789327668</v>
+        <v>1.012685511015716</v>
       </c>
       <c r="K24">
-        <v>1.004023994497774</v>
+        <v>1.024030526616119</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.025222249281229</v>
       </c>
       <c r="M24">
-        <v>0.985543396632854</v>
+        <v>1.033920761968669</v>
       </c>
       <c r="N24">
-        <v>1.000910505350467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007754687557985</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035418380075363</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028113573879975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747433126817001</v>
+        <v>0.9926198066623252</v>
       </c>
       <c r="D25">
-        <v>0.9981610355523959</v>
+        <v>1.01532498759893</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.017669694823562</v>
       </c>
       <c r="F25">
-        <v>0.9832324505511277</v>
+        <v>1.026090312166541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033967073470595</v>
+        <v>1.042601804855944</v>
       </c>
       <c r="J25">
-        <v>1.000151621293886</v>
+        <v>1.017398122257642</v>
       </c>
       <c r="K25">
-        <v>1.010787966310944</v>
+        <v>1.027689971331511</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.029999767002666</v>
       </c>
       <c r="M25">
-        <v>0.9960967602639184</v>
+        <v>1.038296673790299</v>
       </c>
       <c r="N25">
-        <v>1.003596223549745</v>
+        <v>1.009395023430088</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038881637089298</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030698144659532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9987506964119924</v>
+        <v>0.9992635647951857</v>
       </c>
       <c r="D2">
-        <v>1.019244106294207</v>
+        <v>1.019387558553965</v>
       </c>
       <c r="E2">
-        <v>1.022517743003401</v>
+        <v>1.022693505864767</v>
       </c>
       <c r="F2">
-        <v>1.030606144956644</v>
+        <v>1.0307808141028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043757176375033</v>
+        <v>1.043843095597251</v>
       </c>
       <c r="J2">
-        <v>1.020968838250254</v>
+        <v>1.021466324845874</v>
       </c>
       <c r="K2">
-        <v>1.030441695528897</v>
+        <v>1.030583243226149</v>
       </c>
       <c r="L2">
-        <v>1.03367203621897</v>
+        <v>1.033845484330834</v>
       </c>
       <c r="M2">
-        <v>1.04165493945822</v>
+        <v>1.041827353207938</v>
       </c>
       <c r="N2">
-        <v>1.010631136967273</v>
+        <v>1.01271078793507</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041539480272084</v>
+        <v>1.041675933985709</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03259509938836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032704030335872</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020195024660796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003097288777017</v>
+        <v>1.003340094014876</v>
       </c>
       <c r="D3">
-        <v>1.02204162614827</v>
+        <v>1.02190667473934</v>
       </c>
       <c r="E3">
-        <v>1.025972304819836</v>
+        <v>1.026064850154527</v>
       </c>
       <c r="F3">
-        <v>1.033822633820162</v>
+        <v>1.033899850272795</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044562858134014</v>
+        <v>1.04453122683546</v>
       </c>
       <c r="J3">
-        <v>1.023503873225041</v>
+        <v>1.023740116996831</v>
       </c>
       <c r="K3">
-        <v>1.03240003896237</v>
+        <v>1.032266723244915</v>
       </c>
       <c r="L3">
-        <v>1.036283309732335</v>
+        <v>1.036374744308442</v>
       </c>
       <c r="M3">
-        <v>1.044040292147103</v>
+        <v>1.044116599152483</v>
       </c>
       <c r="N3">
-        <v>1.011511381849659</v>
+        <v>1.013336608080486</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043427321817462</v>
+        <v>1.043487713449521</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033977156375265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033891451166361</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020548527029354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005854302238407</v>
+        <v>1.005928058224971</v>
       </c>
       <c r="D4">
-        <v>1.023819592790481</v>
+        <v>1.023509466940763</v>
       </c>
       <c r="E4">
-        <v>1.028174447615166</v>
+        <v>1.028215273561949</v>
       </c>
       <c r="F4">
-        <v>1.035872417091322</v>
+        <v>1.03588873241268</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045063989383268</v>
+        <v>1.04495833567815</v>
       </c>
       <c r="J4">
-        <v>1.025109430703991</v>
+        <v>1.025181329714157</v>
       </c>
       <c r="K4">
-        <v>1.033638791023732</v>
+        <v>1.033332197609985</v>
       </c>
       <c r="L4">
-        <v>1.037944319903233</v>
+        <v>1.037984685864047</v>
       </c>
       <c r="M4">
-        <v>1.045556344733599</v>
+        <v>1.045572479569012</v>
       </c>
       <c r="N4">
-        <v>1.012068596634575</v>
+        <v>1.013733185867562</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044627169957694</v>
+        <v>1.044639939525433</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034853976706307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034645826631282</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020769748169546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007005098511693</v>
+        <v>1.007008671979689</v>
       </c>
       <c r="D5">
-        <v>1.024564851334176</v>
+        <v>1.024181869837396</v>
       </c>
       <c r="E5">
-        <v>1.029094456640197</v>
+        <v>1.029113868411499</v>
       </c>
       <c r="F5">
-        <v>1.036728699722187</v>
+        <v>1.03671973486216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045272362639762</v>
+        <v>1.045135878562369</v>
       </c>
       <c r="J5">
-        <v>1.025780796169965</v>
+        <v>1.025784282381327</v>
       </c>
       <c r="K5">
-        <v>1.034158170306952</v>
+        <v>1.033779435046301</v>
       </c>
       <c r="L5">
-        <v>1.038637848937387</v>
+        <v>1.038657047907938</v>
       </c>
       <c r="M5">
-        <v>1.046189155548621</v>
+        <v>1.046180287202447</v>
       </c>
       <c r="N5">
-        <v>1.0123021172931</v>
+        <v>1.01389951903279</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045127994271543</v>
+        <v>1.045120975614805</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0352284440589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034969992037648</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020862546566643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007203167275837</v>
+        <v>1.007194529948289</v>
       </c>
       <c r="D6">
-        <v>1.024695996538827</v>
+        <v>1.0243004149957</v>
       </c>
       <c r="E6">
-        <v>1.029250840842628</v>
+        <v>1.029266493046539</v>
       </c>
       <c r="F6">
-        <v>1.036874327032709</v>
+        <v>1.036860939692782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045310057998594</v>
+        <v>1.045168202658734</v>
       </c>
       <c r="J6">
-        <v>1.025898504149928</v>
+        <v>1.025890076632121</v>
       </c>
       <c r="K6">
-        <v>1.03425136814376</v>
+        <v>1.033860152440357</v>
       </c>
       <c r="L6">
-        <v>1.03875623969839</v>
+        <v>1.038771721112749</v>
       </c>
       <c r="M6">
-        <v>1.046297289833821</v>
+        <v>1.046284045955229</v>
       </c>
       <c r="N6">
-        <v>1.01234377875113</v>
+        <v>1.013929241689737</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045213574758207</v>
+        <v>1.045203093184161</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035303144039291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035036734974556</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020879928135117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005884776407327</v>
+        <v>1.005967883019557</v>
       </c>
       <c r="D7">
-        <v>1.0238469134616</v>
+        <v>1.023542938460289</v>
       </c>
       <c r="E7">
-        <v>1.028193158003003</v>
+        <v>1.028237576899637</v>
       </c>
       <c r="F7">
-        <v>1.035890031541337</v>
+        <v>1.035909891834559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045074831638104</v>
+        <v>1.044972042100588</v>
       </c>
       <c r="J7">
-        <v>1.025133101519377</v>
+        <v>1.025214116693868</v>
       </c>
       <c r="K7">
-        <v>1.033662892834719</v>
+        <v>1.033362378799227</v>
       </c>
       <c r="L7">
-        <v>1.037959928111438</v>
+        <v>1.038003846731871</v>
       </c>
       <c r="M7">
-        <v>1.045570901598415</v>
+        <v>1.045590542273187</v>
       </c>
       <c r="N7">
-        <v>1.012078807639454</v>
+        <v>1.013770152826353</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044638690674623</v>
+        <v>1.044654234863088</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034891263658334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03468940858383</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020778689557712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000250345465634</v>
+        <v>1.000704918925073</v>
       </c>
       <c r="D8">
-        <v>1.020217994059035</v>
+        <v>1.020290611852927</v>
       </c>
       <c r="E8">
-        <v>1.023700458303203</v>
+        <v>1.023860923502155</v>
       </c>
       <c r="F8">
-        <v>1.031707609391843</v>
+        <v>1.03186201211567</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04404378688407</v>
+        <v>1.044100875144174</v>
       </c>
       <c r="J8">
-        <v>1.02185128822511</v>
+        <v>1.022292692726227</v>
       </c>
       <c r="K8">
-        <v>1.031130890687844</v>
+        <v>1.03120257308348</v>
       </c>
       <c r="L8">
-        <v>1.034568683617635</v>
+        <v>1.034727099600093</v>
       </c>
       <c r="M8">
-        <v>1.042474549379275</v>
+        <v>1.042627018268588</v>
       </c>
       <c r="N8">
-        <v>1.010940227071352</v>
+        <v>1.013020806018366</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042188145347104</v>
+        <v>1.04230881395847</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033105509309349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033167298280315</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020330544163105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9898506774960163</v>
+        <v>0.9909718592445892</v>
       </c>
       <c r="D9">
-        <v>1.01353846327993</v>
+        <v>1.014290553445953</v>
       </c>
       <c r="E9">
-        <v>1.01550760203185</v>
+        <v>1.015876931662336</v>
       </c>
       <c r="F9">
-        <v>1.02407575911779</v>
+        <v>1.02447178813161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042055375001551</v>
+        <v>1.042399357106978</v>
       </c>
       <c r="J9">
-        <v>1.015766996428937</v>
+        <v>1.016847502585059</v>
       </c>
       <c r="K9">
-        <v>1.026415641816805</v>
+        <v>1.027155954473135</v>
       </c>
       <c r="L9">
-        <v>1.028353991683185</v>
+        <v>1.02871756357426</v>
       </c>
       <c r="M9">
-        <v>1.036789937637276</v>
+        <v>1.037179923901842</v>
       </c>
       <c r="N9">
-        <v>1.00882391677607</v>
+        <v>1.011530176894008</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037689152768896</v>
+        <v>1.037997801892546</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029768250731067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030302552638122</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019465197704811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.982660708581735</v>
+        <v>0.9843077075438552</v>
       </c>
       <c r="D10">
-        <v>1.008956354538376</v>
+        <v>1.010222880827928</v>
       </c>
       <c r="E10">
-        <v>1.010030357789241</v>
+        <v>1.010570109627316</v>
       </c>
       <c r="F10">
-        <v>1.0189925123824</v>
+        <v>1.019580749693287</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040655821450978</v>
+        <v>1.041218024786102</v>
       </c>
       <c r="J10">
-        <v>1.011579571676469</v>
+        <v>1.013158062107899</v>
       </c>
       <c r="K10">
-        <v>1.023165760510087</v>
+        <v>1.024409978964515</v>
       </c>
       <c r="L10">
-        <v>1.024220842237417</v>
+        <v>1.024751104541135</v>
       </c>
       <c r="M10">
-        <v>1.033027114310535</v>
+        <v>1.033605244043755</v>
       </c>
       <c r="N10">
-        <v>1.007373569531077</v>
+        <v>1.010639237167626</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034762783826442</v>
+        <v>1.035220309513158</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027487312969748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028379598905302</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018873937652641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9800597983495558</v>
+        <v>0.9819610578439538</v>
       </c>
       <c r="D11">
-        <v>1.007386318174084</v>
+        <v>1.008879358070028</v>
       </c>
       <c r="E11">
-        <v>1.00905727873456</v>
+        <v>1.00966996688842</v>
       </c>
       <c r="F11">
-        <v>1.01826284827112</v>
+        <v>1.018940000914153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040326224018206</v>
+        <v>1.040983128875242</v>
       </c>
       <c r="J11">
-        <v>1.010286302287969</v>
+        <v>1.012104021427109</v>
       </c>
       <c r="K11">
-        <v>1.022170270833081</v>
+        <v>1.023635743160804</v>
       </c>
       <c r="L11">
-        <v>1.023810385777402</v>
+        <v>1.024411797151021</v>
       </c>
       <c r="M11">
-        <v>1.03284838102301</v>
+        <v>1.033513362401015</v>
       </c>
       <c r="N11">
-        <v>1.006983163816534</v>
+        <v>1.010625602228024</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035059272267939</v>
+        <v>1.035585264684639</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026816645804102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027868568580309</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018746918315122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9793008378316682</v>
+        <v>0.9812801458499865</v>
       </c>
       <c r="D12">
-        <v>1.006960830131049</v>
+        <v>1.008519297026405</v>
       </c>
       <c r="E12">
-        <v>1.009238678841066</v>
+        <v>1.009864368656797</v>
       </c>
       <c r="F12">
-        <v>1.018553979041841</v>
+        <v>1.019255031723757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040311681021122</v>
+        <v>1.040994029088484</v>
       </c>
       <c r="J12">
-        <v>1.010007813193164</v>
+        <v>1.011898450752328</v>
       </c>
       <c r="K12">
-        <v>1.021955875742389</v>
+        <v>1.02348508078267</v>
       </c>
       <c r="L12">
-        <v>1.024190995240919</v>
+        <v>1.024804992044624</v>
       </c>
       <c r="M12">
-        <v>1.033334142619458</v>
+        <v>1.034022405093912</v>
       </c>
       <c r="N12">
-        <v>1.006932436505318</v>
+        <v>1.010704934939445</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03577091494258</v>
+        <v>1.03631513706944</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026665058370084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027762045744714</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018742287433195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9799289821720943</v>
+        <v>0.9818346252042249</v>
       </c>
       <c r="D13">
-        <v>1.007408219947471</v>
+        <v>1.00889655404498</v>
       </c>
       <c r="E13">
-        <v>1.010331646403238</v>
+        <v>1.010918657661235</v>
       </c>
       <c r="F13">
-        <v>1.019669100665805</v>
+        <v>1.020338025312717</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04055278491977</v>
+        <v>1.041201756072273</v>
       </c>
       <c r="J13">
-        <v>1.010511933317048</v>
+        <v>1.012332666717011</v>
       </c>
       <c r="K13">
-        <v>1.022351291288086</v>
+        <v>1.023811803791453</v>
       </c>
       <c r="L13">
-        <v>1.025220171060862</v>
+        <v>1.025796279185896</v>
       </c>
       <c r="M13">
-        <v>1.034386127728432</v>
+        <v>1.035042923183321</v>
       </c>
       <c r="N13">
-        <v>1.007149389214061</v>
+        <v>1.010828431556371</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036880014779683</v>
+        <v>1.037399224402742</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026942115763709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027990288139637</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018835163846776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9809967505374487</v>
+        <v>0.9827825233241387</v>
       </c>
       <c r="D14">
-        <v>1.008118059174393</v>
+        <v>1.009496489947679</v>
       </c>
       <c r="E14">
-        <v>1.011501296871717</v>
+        <v>1.01203954168571</v>
       </c>
       <c r="F14">
-        <v>1.020816276909269</v>
+        <v>1.021438047478521</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040836990793258</v>
+        <v>1.041436426038377</v>
       </c>
       <c r="J14">
-        <v>1.011218845794369</v>
+        <v>1.012926240978021</v>
       </c>
       <c r="K14">
-        <v>1.022905257856232</v>
+        <v>1.024258248274813</v>
       </c>
       <c r="L14">
-        <v>1.026226215601165</v>
+        <v>1.026754602186813</v>
       </c>
       <c r="M14">
-        <v>1.035372492091503</v>
+        <v>1.035983144027634</v>
       </c>
       <c r="N14">
-        <v>1.007422690121855</v>
+        <v>1.010936449567375</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037833324124256</v>
+        <v>1.038315991209319</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027335236556705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028307515721734</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018945028237933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9815644711300363</v>
+        <v>0.9832886732218103</v>
       </c>
       <c r="D15">
-        <v>1.008487762891414</v>
+        <v>1.009810410241663</v>
       </c>
       <c r="E15">
-        <v>1.012001749979196</v>
+        <v>1.01251783318739</v>
       </c>
       <c r="F15">
-        <v>1.021295533410127</v>
+        <v>1.021894083124754</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040966174650381</v>
+        <v>1.041541057118731</v>
       </c>
       <c r="J15">
-        <v>1.011568954117745</v>
+        <v>1.013218166391041</v>
       </c>
       <c r="K15">
-        <v>1.023180319845556</v>
+        <v>1.024478744912601</v>
       </c>
       <c r="L15">
-        <v>1.026630134885087</v>
+        <v>1.027136842237804</v>
       </c>
       <c r="M15">
-        <v>1.035756958000447</v>
+        <v>1.036344889971085</v>
       </c>
       <c r="N15">
-        <v>1.007550741031005</v>
+        <v>1.010977992298806</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038174790922825</v>
+        <v>1.038639487659213</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027535651704534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028469914013039</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018995569507384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9844878732198979</v>
+        <v>0.9859199528228086</v>
       </c>
       <c r="D16">
-        <v>1.010340867254462</v>
+        <v>1.011398875413134</v>
       </c>
       <c r="E16">
-        <v>1.014114517901823</v>
+        <v>1.014537728981696</v>
       </c>
       <c r="F16">
-        <v>1.02326086946843</v>
+        <v>1.02375360769679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.0415264014232</v>
+        <v>1.041987979988618</v>
       </c>
       <c r="J16">
-        <v>1.013251948858245</v>
+        <v>1.014624945553046</v>
       </c>
       <c r="K16">
-        <v>1.024489754093391</v>
+        <v>1.025529242694096</v>
       </c>
       <c r="L16">
-        <v>1.028197579035734</v>
+        <v>1.028613447348705</v>
       </c>
       <c r="M16">
-        <v>1.037186986450669</v>
+        <v>1.037671372423997</v>
       </c>
       <c r="N16">
-        <v>1.008125806148223</v>
+        <v>1.011145729843427</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039266320993681</v>
+        <v>1.039649186857024</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028464682918093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029216156121138</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01921571404604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9861735158626018</v>
+        <v>0.9874590298245682</v>
       </c>
       <c r="D17">
-        <v>1.011393452495548</v>
+        <v>1.012316462902143</v>
       </c>
       <c r="E17">
-        <v>1.015124299262004</v>
+        <v>1.015505758513852</v>
       </c>
       <c r="F17">
-        <v>1.024164442146598</v>
+        <v>1.02460576153807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041805465112232</v>
+        <v>1.04221061978811</v>
       </c>
       <c r="J17">
-        <v>1.01417359411019</v>
+        <v>1.01540781826331</v>
       </c>
       <c r="K17">
-        <v>1.025204619391747</v>
+        <v>1.026111932025828</v>
       </c>
       <c r="L17">
-        <v>1.028872241499391</v>
+        <v>1.029247270130198</v>
       </c>
       <c r="M17">
-        <v>1.03776164383758</v>
+        <v>1.038195692017575</v>
       </c>
       <c r="N17">
-        <v>1.00842400619504</v>
+        <v>1.011249474886557</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039591369028039</v>
+        <v>1.039934481403465</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028972740239965</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029631001659873</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019329516762652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9869406588709022</v>
+        <v>0.988173992295081</v>
       </c>
       <c r="D18">
-        <v>1.011838807311198</v>
+        <v>1.012713495038406</v>
       </c>
       <c r="E18">
-        <v>1.015216982450526</v>
+        <v>1.015590142746462</v>
       </c>
       <c r="F18">
-        <v>1.024168437338026</v>
+        <v>1.024593775790293</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041858100878348</v>
+        <v>1.042244896852006</v>
       </c>
       <c r="J18">
-        <v>1.01450627568787</v>
+        <v>1.015691338850157</v>
       </c>
       <c r="K18">
-        <v>1.025456269355241</v>
+        <v>1.026316327085429</v>
       </c>
       <c r="L18">
-        <v>1.02877812066352</v>
+        <v>1.029145088898987</v>
       </c>
       <c r="M18">
-        <v>1.037582636857591</v>
+        <v>1.038001075405805</v>
       </c>
       <c r="N18">
-        <v>1.00850292246351</v>
+        <v>1.01126031964569</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039211849249292</v>
+        <v>1.03954269137466</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029138917554118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029762637215194</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019353143941236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9869016938697784</v>
+        <v>0.9881546411897485</v>
       </c>
       <c r="D19">
-        <v>1.011763844638286</v>
+        <v>1.012658300582367</v>
       </c>
       <c r="E19">
-        <v>1.014481315332841</v>
+        <v>1.014871274511827</v>
       </c>
       <c r="F19">
-        <v>1.023357801609516</v>
+        <v>1.023793981069054</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04172193439786</v>
+        <v>1.042119811742868</v>
       </c>
       <c r="J19">
-        <v>1.014331257475952</v>
+        <v>1.015535450603232</v>
       </c>
       <c r="K19">
-        <v>1.025319090707924</v>
+        <v>1.026198663587995</v>
       </c>
       <c r="L19">
-        <v>1.027991449346999</v>
+        <v>1.028374960419969</v>
       </c>
       <c r="M19">
-        <v>1.036722722628</v>
+        <v>1.03715184982056</v>
       </c>
       <c r="N19">
-        <v>1.008399326057684</v>
+        <v>1.011176320173057</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038205780377204</v>
+        <v>1.03854518479076</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029048383601922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029686523218621</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019302902239261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9845682793752554</v>
+        <v>0.9860401037530396</v>
       </c>
       <c r="D20">
-        <v>1.010189780718818</v>
+        <v>1.011293953933597</v>
       </c>
       <c r="E20">
-        <v>1.011471606088177</v>
+        <v>1.011950878001532</v>
       </c>
       <c r="F20">
-        <v>1.020331412896832</v>
+        <v>1.020854206340595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041044876162479</v>
+        <v>1.04153660188763</v>
       </c>
       <c r="J20">
-        <v>1.012707307805665</v>
+        <v>1.014119968524702</v>
       </c>
       <c r="K20">
-        <v>1.024055790676531</v>
+        <v>1.025141077876856</v>
       </c>
       <c r="L20">
-        <v>1.025315696405297</v>
+        <v>1.025786791031027</v>
       </c>
       <c r="M20">
-        <v>1.034025937865259</v>
+        <v>1.034540010353846</v>
       </c>
       <c r="N20">
-        <v>1.007770598727746</v>
+        <v>1.010806015799585</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035542654638292</v>
+        <v>1.035949490937258</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028159128763428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028943111746581</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019034541479841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9790392441290942</v>
+        <v>0.9810868352849731</v>
       </c>
       <c r="D21">
-        <v>1.006657697482886</v>
+        <v>1.008284708417173</v>
       </c>
       <c r="E21">
-        <v>1.007097458792458</v>
+        <v>1.007784574567063</v>
       </c>
       <c r="F21">
-        <v>1.016235394150461</v>
+        <v>1.016975939602043</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039915323913842</v>
+        <v>1.040635606423858</v>
       </c>
       <c r="J21">
-        <v>1.009440240230798</v>
+        <v>1.011397157842053</v>
       </c>
       <c r="K21">
-        <v>1.021514026063988</v>
+        <v>1.023110806161178</v>
       </c>
       <c r="L21">
-        <v>1.021945603779336</v>
+        <v>1.022619951545188</v>
       </c>
       <c r="M21">
-        <v>1.030915574711094</v>
+        <v>1.031642680172189</v>
       </c>
       <c r="N21">
-        <v>1.006627860029271</v>
+        <v>1.01048419443221</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03303995491935</v>
+        <v>1.033615415942658</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026365241568006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027511212407427</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018598431762408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9755015511722167</v>
+        <v>0.9779189098687681</v>
       </c>
       <c r="D22">
-        <v>1.004401076719466</v>
+        <v>1.006364549647179</v>
       </c>
       <c r="E22">
-        <v>1.004381136462123</v>
+        <v>1.005204971692171</v>
       </c>
       <c r="F22">
-        <v>1.013702352942037</v>
+        <v>1.014584008390808</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039188980847373</v>
+        <v>1.0400567599828</v>
       </c>
       <c r="J22">
-        <v>1.007355977728401</v>
+        <v>1.009659816261649</v>
       </c>
       <c r="K22">
-        <v>1.019885848709737</v>
+        <v>1.021810969241279</v>
       </c>
       <c r="L22">
-        <v>1.019866298953527</v>
+        <v>1.020674017487592</v>
       </c>
       <c r="M22">
-        <v>1.029007164542309</v>
+        <v>1.029871985761175</v>
       </c>
       <c r="N22">
-        <v>1.005899303457594</v>
+        <v>1.010272099676553</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031529558749501</v>
+        <v>1.032214015083498</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025200366216521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026577211389107</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018317468867824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9773702336596631</v>
+        <v>0.9795728662299743</v>
       </c>
       <c r="D23">
-        <v>1.005585486229437</v>
+        <v>1.007356482923617</v>
       </c>
       <c r="E23">
-        <v>1.005818837524185</v>
+        <v>1.006561522660696</v>
       </c>
       <c r="F23">
-        <v>1.015043316082634</v>
+        <v>1.015842519044935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039568801568403</v>
+        <v>1.040351745645832</v>
       </c>
       <c r="J23">
-        <v>1.008451682346706</v>
+        <v>1.010554021737847</v>
       </c>
       <c r="K23">
-        <v>1.02073683297374</v>
+        <v>1.022474133211704</v>
       </c>
       <c r="L23">
-        <v>1.020965735453442</v>
+        <v>1.021694279341676</v>
       </c>
       <c r="M23">
-        <v>1.03001648806938</v>
+        <v>1.030800833232314</v>
       </c>
       <c r="N23">
-        <v>1.006280040149965</v>
+        <v>1.010334295037287</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032328380297297</v>
+        <v>1.032949143773414</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025792311312831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027035418197465</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018457737392833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9845807103075983</v>
+        <v>0.9860536190509827</v>
       </c>
       <c r="D24">
-        <v>1.01017985291021</v>
+        <v>1.011285094693907</v>
       </c>
       <c r="E24">
-        <v>1.011392284266475</v>
+        <v>1.011873418458554</v>
       </c>
       <c r="F24">
-        <v>1.020239998801386</v>
+        <v>1.020763851174092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041022686269692</v>
+        <v>1.041515412714961</v>
       </c>
       <c r="J24">
-        <v>1.012685511015716</v>
+        <v>1.014099298219072</v>
       </c>
       <c r="K24">
-        <v>1.024030526616119</v>
+        <v>1.025116887954244</v>
       </c>
       <c r="L24">
-        <v>1.025222249281229</v>
+        <v>1.025695183319422</v>
       </c>
       <c r="M24">
-        <v>1.033920761968669</v>
+        <v>1.034435884919412</v>
       </c>
       <c r="N24">
-        <v>1.007754687557985</v>
+        <v>1.010790392828709</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035418380075363</v>
+        <v>1.035826068136503</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028113573879975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028895660040322</v>
+      </c>
+      <c r="S24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T24">
+        <v>1.019023480993677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9926198066623252</v>
+        <v>0.9935457463395726</v>
       </c>
       <c r="D25">
-        <v>1.01532498759893</v>
+        <v>1.01588371743599</v>
       </c>
       <c r="E25">
-        <v>1.017669694823562</v>
+        <v>1.017975977084014</v>
       </c>
       <c r="F25">
-        <v>1.026090312166541</v>
+        <v>1.026414896650621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042601804855944</v>
+        <v>1.042863464934232</v>
       </c>
       <c r="J25">
-        <v>1.017398122257642</v>
+        <v>1.018292291446757</v>
       </c>
       <c r="K25">
-        <v>1.027689971331511</v>
+        <v>1.028240363351153</v>
       </c>
       <c r="L25">
-        <v>1.029999767002666</v>
+        <v>1.03030150396434</v>
       </c>
       <c r="M25">
-        <v>1.038296673790299</v>
+        <v>1.038616541199379</v>
       </c>
       <c r="N25">
-        <v>1.009395023430088</v>
+        <v>1.011897057531626</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038881637089298</v>
+        <v>1.039134791222462</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030698144659532</v>
+        <v>1.031100945000784</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019701123032182</v>
       </c>
     </row>
   </sheetData>
